--- a/data/DB files - Excel/tblStudy.xlsx
+++ b/data/DB files - Excel/tblStudy.xlsx
@@ -580,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>red king crab, Paralithodes camtschaticus</t>
+          <t>red king crab (Paralithodes camtschaticus)</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="AA10" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB10" s="8" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AC10" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD10" s="8" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>common coral trout (Plectropomus leopardus) and red throat emperor (Lethrinus miniatus)</t>
+          <t>common coral trout (Plectropomus leopardus), red throat emperor (Lethrinus miniatus)</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AA11" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB11" s="8" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AC11" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD11" s="8" t="inlineStr">
@@ -2309,9 +2309,7 @@
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>tiger flathead (Neoplatycephalus richardsoni),
-jackass morwong (Nemadactylus macropterus), and
-school whiting (Sillago flindersi).</t>
+          <t>tiger flathead (Neoplatycephalus richardsoni), jackass morwong (Nemadactylus macropterus), school whiting (Sillago flindersi)</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -2377,7 +2375,7 @@
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2402,7 +2400,7 @@
       </c>
       <c r="AA12" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB12" s="8" t="inlineStr">
@@ -2412,7 +2410,7 @@
       </c>
       <c r="AC12" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD12" s="8" t="inlineStr">
@@ -2527,7 +2525,7 @@
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2552,7 +2550,7 @@
       </c>
       <c r="AA13" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB13" s="8" t="inlineStr">
@@ -2562,7 +2560,7 @@
       </c>
       <c r="AC13" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD13" s="8" t="inlineStr">
@@ -2676,7 +2674,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -2701,7 +2699,7 @@
       </c>
       <c r="AA14" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB14" s="8" t="inlineStr">
@@ -2825,7 +2823,7 @@
       </c>
       <c r="V15" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W15" s="5" t="inlineStr">
@@ -2850,7 +2848,7 @@
       </c>
       <c r="AA15" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB15" s="8" t="inlineStr">
@@ -2860,7 +2858,7 @@
       </c>
       <c r="AC15" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD15" s="8" t="inlineStr">
@@ -2910,7 +2908,7 @@
       </c>
       <c r="D16" s="6" t="inlineStr">
         <is>
-          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus), endeavour prawn (Metapenaeus endeavouri and M. ensis) and their ecosystem</t>
+          <t>Tiger prawn (Penaeus esculentus), Tiger prawn (P. semisulcatus), Endeavour prawn (Metapenaeus endeavouri), Endeavour prawn (Metapenaeus ensis), Northern Australia prawn ecosystem</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -2976,7 +2974,7 @@
       </c>
       <c r="V16" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W16" s="5" t="inlineStr">
@@ -3001,7 +2999,7 @@
       </c>
       <c r="AA16" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB16" s="8" t="inlineStr">
@@ -3011,7 +3009,7 @@
       </c>
       <c r="AC16" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD16" s="8" t="inlineStr">
@@ -3059,7 +3057,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>Megrim (Lepidorhombus whiffiagonis), Hake (Merluccius merluccius), Black anglerfish (Lophius budegassa), White anglerfish (Lophius piscatorius), Western Horse mackeral (Trachurus trachurus), Mackeral (Scomber scombrus), Blue whiting (Micromesistius poutassou), Rays (Leucoraja naevus), Inshore squids (Loliginidae, Seabass (Dicentrarchus labrax), Cuttlefishes and bobtail squids (Sepiidae, Sepiolidae), Red mullet (Mullus surmuletus)</t>
+          <t>Megrim (Lepidorhombus whiffiagonis), Hake (Merluccius merluccius), Black anglerfish (Lophius budegassa), White anglerfish (Lophius piscatorius), Western Horse mackeral (Trachurus trachurus), Mackeral (Scomber scombrus), Blue whiting (Micromesistius poutassou), Rays (Leucoraja naevus), Inshore squids (Loliginidae, Seabass (Dicentrarchus labrax), Cuttlefish (Sepiidae), bobtail squids (Sepiolidae), Red mullet (Mullus surmuletus)</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -3125,7 +3123,7 @@
       </c>
       <c r="V17" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W17" s="5" t="inlineStr">
@@ -3150,7 +3148,7 @@
       </c>
       <c r="AA17" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB17" s="8" t="inlineStr">
@@ -3160,7 +3158,7 @@
       </c>
       <c r="AC17" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD17" s="8" t="inlineStr">
@@ -3208,7 +3206,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Tiger prawn (Penaeus esculentus and P. semisulcatus)</t>
+          <t>Tiger prawn (Penaeus esculentus), Tiger prawn (Penaeus semisulcatus)</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -3274,7 +3272,7 @@
       </c>
       <c r="V18" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W18" s="5" t="inlineStr">
@@ -3299,7 +3297,7 @@
       </c>
       <c r="AA18" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB18" s="8" t="inlineStr">
@@ -3309,7 +3307,7 @@
       </c>
       <c r="AC18" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD18" s="8" t="inlineStr">
@@ -3423,7 +3421,7 @@
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
@@ -3448,7 +3446,7 @@
       </c>
       <c r="AA19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB19" s="8" t="inlineStr">
@@ -3458,7 +3456,7 @@
       </c>
       <c r="AC19" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD19" s="8" t="inlineStr">
@@ -3572,7 +3570,7 @@
       </c>
       <c r="V20" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W20" s="5" t="inlineStr">
@@ -3597,7 +3595,7 @@
       </c>
       <c r="AA20" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB20" s="8" t="inlineStr">
@@ -3607,7 +3605,7 @@
       </c>
       <c r="AC20" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD20" s="8" t="inlineStr">
@@ -3870,7 +3868,7 @@
       </c>
       <c r="V22" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W22" s="5" t="inlineStr">
@@ -3895,7 +3893,7 @@
       </c>
       <c r="AA22" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB22" s="8" t="inlineStr">
@@ -3905,7 +3903,7 @@
       </c>
       <c r="AC22" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD22" s="8" t="inlineStr">
@@ -4019,7 +4017,7 @@
       </c>
       <c r="V23" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W23" s="5" t="inlineStr">
@@ -4044,7 +4042,7 @@
       </c>
       <c r="AA23" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB23" s="8" t="inlineStr">
@@ -4054,7 +4052,7 @@
       </c>
       <c r="AC23" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD23" s="8" t="inlineStr">
@@ -4317,7 +4315,7 @@
       </c>
       <c r="V25" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W25" s="5" t="inlineStr">
@@ -4342,7 +4340,7 @@
       </c>
       <c r="AA25" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB25" s="8" t="inlineStr">
@@ -4352,7 +4350,7 @@
       </c>
       <c r="AC25" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD25" s="8" t="inlineStr">
@@ -4466,7 +4464,7 @@
       </c>
       <c r="V26" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W26" s="5" t="inlineStr">
@@ -4501,7 +4499,7 @@
       </c>
       <c r="AC26" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD26" s="8" t="inlineStr">
@@ -4615,7 +4613,7 @@
       </c>
       <c r="V27" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W27" s="5" t="inlineStr">
@@ -4640,7 +4638,7 @@
       </c>
       <c r="AA27" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB27" s="8" t="inlineStr">
@@ -4770,7 +4768,7 @@
       </c>
       <c r="W28" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="X28" s="5" t="inlineStr">
@@ -4915,7 +4913,7 @@
       </c>
       <c r="V29" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W29" s="5" t="inlineStr">
@@ -4940,7 +4938,7 @@
       </c>
       <c r="AA29" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB29" s="8" t="inlineStr">
@@ -4950,7 +4948,7 @@
       </c>
       <c r="AC29" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD29" s="8" t="inlineStr">
@@ -5089,7 +5087,7 @@
       </c>
       <c r="AA30" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB30" s="8" t="inlineStr">
@@ -5099,7 +5097,7 @@
       </c>
       <c r="AC30" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD30" s="8" t="inlineStr">
@@ -5147,7 +5145,7 @@
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>abalone (Haliotis rubra and Haliotis laevigata)</t>
+          <t>abalone (Haliotis rubra), abalone (Haliotis laevigata)</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -5213,7 +5211,7 @@
       </c>
       <c r="V31" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W31" s="5" t="inlineStr">
@@ -5238,7 +5236,7 @@
       </c>
       <c r="AA31" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB31" s="8" t="inlineStr">
@@ -5248,7 +5246,7 @@
       </c>
       <c r="AC31" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD31" s="8" t="inlineStr">
@@ -5362,7 +5360,7 @@
       </c>
       <c r="V32" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W32" s="5" t="inlineStr">
@@ -5387,7 +5385,7 @@
       </c>
       <c r="AA32" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB32" s="8" t="inlineStr">
@@ -5397,7 +5395,7 @@
       </c>
       <c r="AC32" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD32" s="8" t="inlineStr">
@@ -5511,7 +5509,7 @@
       </c>
       <c r="V33" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W33" s="5" t="inlineStr">
@@ -5536,7 +5534,7 @@
       </c>
       <c r="AA33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB33" s="8" t="inlineStr">
@@ -5546,7 +5544,7 @@
       </c>
       <c r="AC33" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD33" s="8" t="inlineStr">
@@ -5660,7 +5658,7 @@
       </c>
       <c r="V34" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W34" s="5" t="inlineStr">
@@ -5685,7 +5683,7 @@
       </c>
       <c r="AA34" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB34" s="8" t="inlineStr">
@@ -5695,7 +5693,7 @@
       </c>
       <c r="AC34" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD34" s="8" t="inlineStr">
@@ -5810,7 +5808,7 @@
       </c>
       <c r="V35" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W35" s="5" t="inlineStr">
@@ -5835,7 +5833,7 @@
       </c>
       <c r="AA35" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB35" s="8" t="inlineStr">
@@ -5845,7 +5843,7 @@
       </c>
       <c r="AC35" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD35" s="8" t="inlineStr">
@@ -5960,7 +5958,7 @@
       </c>
       <c r="V36" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W36" s="5" t="inlineStr">
@@ -5975,17 +5973,17 @@
       </c>
       <c r="Y36" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="Z36" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Scientists</t>
         </is>
       </c>
       <c r="AA36" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB36" s="8" t="inlineStr">
@@ -5995,12 +5993,12 @@
       </c>
       <c r="AC36" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD36" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AE36" s="8" t="inlineStr">
@@ -6109,7 +6107,7 @@
       </c>
       <c r="V37" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W37" s="5" t="inlineStr">
@@ -6134,7 +6132,7 @@
       </c>
       <c r="AA37" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB37" s="8" t="inlineStr">
@@ -6144,7 +6142,7 @@
       </c>
       <c r="AC37" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD37" s="8" t="inlineStr">
@@ -6258,7 +6256,7 @@
       </c>
       <c r="V38" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W38" s="5" t="inlineStr">
@@ -6283,7 +6281,7 @@
       </c>
       <c r="AA38" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB38" s="8" t="inlineStr">
@@ -6293,7 +6291,7 @@
       </c>
       <c r="AC38" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD38" s="8" t="inlineStr">
@@ -6407,7 +6405,7 @@
       </c>
       <c r="V39" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W39" s="5" t="inlineStr">
@@ -6432,7 +6430,7 @@
       </c>
       <c r="AA39" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB39" s="8" t="inlineStr">
@@ -6556,7 +6554,7 @@
       </c>
       <c r="V40" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W40" s="5" t="inlineStr">
@@ -6581,7 +6579,7 @@
       </c>
       <c r="AA40" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB40" s="8" t="inlineStr">
@@ -6591,7 +6589,7 @@
       </c>
       <c r="AC40" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD40" s="8" t="inlineStr">
@@ -6705,7 +6703,7 @@
       </c>
       <c r="V41" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W41" s="5" t="inlineStr">
@@ -6730,7 +6728,7 @@
       </c>
       <c r="AA41" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB41" s="8" t="inlineStr">
@@ -6740,7 +6738,7 @@
       </c>
       <c r="AC41" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD41" s="8" t="inlineStr">
@@ -6854,7 +6852,7 @@
       </c>
       <c r="V42" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W42" s="5" t="inlineStr">
@@ -6879,7 +6877,7 @@
       </c>
       <c r="AA42" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB42" s="8" t="inlineStr">
@@ -6889,7 +6887,7 @@
       </c>
       <c r="AC42" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD42" s="8" t="inlineStr">
@@ -7003,7 +7001,7 @@
       </c>
       <c r="V43" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W43" s="5" t="inlineStr">
@@ -7028,7 +7026,7 @@
       </c>
       <c r="AA43" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB43" s="8" t="inlineStr">
@@ -7038,7 +7036,7 @@
       </c>
       <c r="AC43" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD43" s="8" t="inlineStr">
@@ -7301,7 +7299,7 @@
       </c>
       <c r="V45" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W45" s="5" t="inlineStr">
@@ -7326,7 +7324,7 @@
       </c>
       <c r="AA45" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB45" s="8" t="inlineStr">
@@ -7336,7 +7334,7 @@
       </c>
       <c r="AC45" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD45" s="8" t="inlineStr">
@@ -7365,7 +7363,7 @@
         </is>
       </c>
       <c r="AI45" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
@@ -7450,7 +7448,7 @@
       </c>
       <c r="V46" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W46" s="5" t="inlineStr">
@@ -7475,22 +7473,22 @@
       </c>
       <c r="AA46" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB46" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AC46" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD46" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AE46" s="8" t="inlineStr">
@@ -7600,7 +7598,7 @@
       </c>
       <c r="V47" s="5" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="W47" s="5" t="inlineStr">
@@ -7625,7 +7623,7 @@
       </c>
       <c r="AA47" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB47" s="8" t="inlineStr">
@@ -7635,12 +7633,12 @@
       </c>
       <c r="AC47" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD47" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AE47" s="8" t="inlineStr">
@@ -7774,7 +7772,7 @@
       </c>
       <c r="AA48" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AB48" s="8" t="inlineStr">
@@ -7784,7 +7782,7 @@
       </c>
       <c r="AC48" s="8" t="inlineStr">
         <is>
-          <t/>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="AD48" s="8" t="inlineStr">
@@ -7813,6 +7811,751 @@
         </is>
       </c>
       <c r="AI48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="4">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>A'mar et al</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>walleye pollock (Theragra chalcogramma)</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska</t>
+        </is>
+      </c>
+      <c r="F49" s="7">
+        <v>57</v>
+      </c>
+      <c r="G49" s="7">
+        <v>-144</v>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska walleye pollock fishery</t>
+        </is>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49" s="6" t="inlineStr">
+        <is>
+          <t>My definition: "How well do the current management strategy, and some candidate management strategies, perform given shifts in climate regime, as realized in fisheries productivity in the Gulf of Alaska walleye pollock fishery?"</t>
+        </is>
+      </c>
+      <c r="U49" s="6" t="inlineStr">
+        <is>
+          <t>Not discussed, but apparently they were supplied by the scientists.</t>
+        </is>
+      </c>
+      <c r="V49" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W49" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X49" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y49" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z49" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA49" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB49" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC49" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD49" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE49" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF49" s="6" t="inlineStr">
+        <is>
+          <t>A’mar, Z. Teresa, André E. Punt, and Martin W. Dorn. “The Impact of Regime Shifts on the Performance of Management Strategies for the Gulf of Alaska Walleye Pollock (Theragra Chalcogramma) Fishery.” Canadian Journal of Fisheries and Aquatic Sciences 66, no. 12 (December 2009): 2222–42.</t>
+        </is>
+      </c>
+      <c r="AG49" s="5" t="inlineStr">
+        <is>
+          <t>doi.org/10.1139/F09-142</t>
+        </is>
+      </c>
+      <c r="AH49" s="6" t="inlineStr">
+        <is>
+          <t>This was a simulation study primarily.</t>
+        </is>
+      </c>
+      <c r="AI49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="4">
+        <v>52</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Dorner et al</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>Pacific salmon (Onchorhyncus spp.)</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>North Pacific</t>
+        </is>
+      </c>
+      <c r="F50" s="7">
+        <v>51</v>
+      </c>
+      <c r="G50" s="7">
+        <v>-129</v>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>Pacific Salmon fsihery</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6" t="inlineStr">
+        <is>
+          <t>The authors state: "the purpose of our research was to evaluate the relative performance of several combinations of harvest policies and stock assessment/forecasting models, including hierarchical models and models that make use of environmental covariates, in the presence of uncertainties about future climatic conditions and outcome uncertainty"</t>
+        </is>
+      </c>
+      <c r="U50" s="6" t="inlineStr">
+        <is>
+          <t>Seemingly supplied by the scientist authoring the MSE</t>
+        </is>
+      </c>
+      <c r="V50" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W50" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X50" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y50" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z50" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA50" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB50" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC50" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD50" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE50" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF50" s="6" t="inlineStr">
+        <is>
+          <t>Dorner, Brigitte, Randall M. Peterman, and Zhenming Su. “Evaluation of Performance of Alternative Management Models of Pacific Salmon (Oncorhynchus Spp.) in the Presence of Climatic Change and Outcome Uncertainty Using Monte Carlo Simulations.” Canadian Journal of Fisheries and Aquatic Sciences 66, no. 12 (December 2009): 2199–2221.</t>
+        </is>
+      </c>
+      <c r="AG50" s="5" t="inlineStr">
+        <is>
+          <t>10.1139/F09-144</t>
+        </is>
+      </c>
+      <c r="AH50" s="6" t="inlineStr">
+        <is>
+          <t>This is a simulation study priamrily focused on alternative stock assessment methods</t>
+        </is>
+      </c>
+      <c r="AI50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="4">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Haltuch et al</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>Sablefish (Anoplopoma fimbria)</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="inlineStr">
+        <is>
+          <t>North Pacific Ocean off US West Coast</t>
+        </is>
+      </c>
+      <c r="F51" s="7">
+        <v>41</v>
+      </c>
+      <c r="G51" s="7">
+        <v>-126</v>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>West Coast sablefish fishery</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>"how resilient is the sablefish stock is to current fishery harvest control rules (HCRs) given climate change and variability and considering alternatives that might be more responsive to long-term directional changes in the productivity of fish stocks?"</t>
+        </is>
+      </c>
+      <c r="U51" s="6" t="inlineStr">
+        <is>
+          <t>Seemingly supplied by scientists</t>
+        </is>
+      </c>
+      <c r="V51" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W51" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="X51" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y51" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z51" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA51" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB51" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC51" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD51" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE51" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF51" s="6" t="inlineStr">
+        <is>
+          <t>Haltuch, Melissa A, Z Teresa A’mar, Nicholas A Bond, and Juan L Valero. “Assessing the Effects of Climate Change on US West Coast Sablefish Productivity and on the Performance of Alternative Management Strategies.” Edited by Jörn Schmidt. ICES Journal of Marine Science 76, no. 6 (December 1, 2019): 1524–42.</t>
+        </is>
+      </c>
+      <c r="AG51" s="5" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsz029</t>
+        </is>
+      </c>
+      <c r="AH51" s="6" t="inlineStr">
+        <is>
+          <t>Seemingly a simulation study without any connection to the management process.</t>
+        </is>
+      </c>
+      <c r="AI51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="4">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Merino et al</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>North Atlantic Albacore (Thunnus alalunga)</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>North Atlantic Ocean</t>
+        </is>
+      </c>
+      <c r="F52" s="7">
+        <v>38</v>
+      </c>
+      <c r="G52" s="7">
+        <v>-39</v>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>North Atlantic Albacore Fishery</t>
+        </is>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="inlineStr">
+        <is>
+          <t>My problem statement based on the available documentation, "Is the HCR adopted for North Atlantic albacore robust to a range of climate change impacts"</t>
+        </is>
+      </c>
+      <c r="U52" s="6" t="inlineStr">
+        <is>
+          <t>Seemingly they were provided by the scientists conducting the evaluation based on established policy from the management body, but the methodology was not explictly documented.</t>
+        </is>
+      </c>
+      <c r="V52" s="5" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="W52" s="5" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="X52" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y52" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z52" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA52" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB52" s="8" t="inlineStr">
+        <is>
+          <t>Management, Scientists</t>
+        </is>
+      </c>
+      <c r="AC52" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD52" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE52" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF52" s="6" t="inlineStr">
+        <is>
+          <t>Merino, Gorka, Haritz Arrizabalaga, Igor Arregui, Josu Santiago, Hilario Murua, Agurtzane Urtizberea, Eider Andonegi, Paul De Bruyn, and Laurence T. Kell. “Adaptation of North Atlantic Albacore Fishery to Climate Change: Yet Another Potential Benefit of Harvest Control Rules.” Frontiers in Marine Science 6 (October 10, 2019)</t>
+        </is>
+      </c>
+      <c r="AG52" s="5" t="inlineStr">
+        <is>
+          <t>10.3389/fmars.2019.00620</t>
+        </is>
+      </c>
+      <c r="AH52" s="6" t="inlineStr">
+        <is>
+          <t>Seemingly a simulation study without a decision making process. No trade-off as evaluated as there are no alternative management proceedures to compare.</t>
+        </is>
+      </c>
+      <c r="AI52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="4">
+        <v>55</v>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Castillo-Jordán et al</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>Patagonian Grenadier (Macruronus Magellanicus)</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F53" s="7">
+        <v>-44</v>
+      </c>
+      <c r="G53" s="7">
+        <v>-76</v>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>Chile Patagonian Grenadier fishery</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53" s="6" t="inlineStr">
+        <is>
+          <t>My slight adaptation of the study objective is: "how would a regime shift in recruitment for Patagonian grenadier off Chile impact the success of management decisions and the sustainability of the fishery?"</t>
+        </is>
+      </c>
+      <c r="U53" s="6" t="inlineStr">
+        <is>
+          <t>Not addressed</t>
+        </is>
+      </c>
+      <c r="V53" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W53" s="5" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="X53" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y53" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z53" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA53" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB53" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC53" s="8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD53" s="8" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE53" s="8" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF53" s="6" t="inlineStr">
+        <is>
+          <t>Castillo-Jordán, Claudio, Sally E. Wayte, Geoffrey N. Tuck, Sean Tracey, Stewart D. Frusher, and André E. Punt. “Implications of a Climate-Induced Recruitment Shift in the Stock Assessment of Patagonian Grenadier (Macruronus Magellanicus) in Chile.” Fisheries Research 212 (April 2019): 114–22.</t>
+        </is>
+      </c>
+      <c r="AG53" s="5" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2018.12.019</t>
+        </is>
+      </c>
+      <c r="AH53" s="6" t="inlineStr">
+        <is>
+          <t>While this is referred to as a climate change study, there isn't a projection of climate change explicitly. What is projected is a possible regime shift in the environment. In terms of the MSE this is a simulation study with an assoiciated decision process seemingly.</t>
+        </is>
+      </c>
+      <c r="AI53" s="9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/DB files - Excel/tblStudy.xlsx
+++ b/data/DB files - Excel/tblStudy.xlsx
@@ -580,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -597,32 +597,33 @@
     <col customWidth="true" min="7" max="7" width="14.0625"/>
     <col customWidth="true" min="8" max="8" width="14.0625"/>
     <col customWidth="true" min="9" max="9" width="22.94921875"/>
-    <col customWidth="true" min="10" max="10" width="24.51171875"/>
-    <col customWidth="true" min="11" max="11" width="26.07421875"/>
-    <col customWidth="true" min="12" max="12" width="18.9453125"/>
+    <col customWidth="true" min="10" max="10" width="14.0625"/>
+    <col customWidth="true" min="11" max="11" width="14.0625"/>
+    <col customWidth="true" min="12" max="12" width="14.0625"/>
     <col customWidth="true" min="13" max="13" width="20.41015625"/>
-    <col customWidth="true" min="14" max="14" width="18.65234375"/>
-    <col customWidth="true" min="15" max="15" width="17.28515625"/>
+    <col customWidth="true" min="14" max="14" width="14.0625"/>
+    <col customWidth="true" min="15" max="15" width="14.0625"/>
     <col customWidth="true" min="16" max="16" width="19.3359375"/>
-    <col customWidth="true" min="17" max="17" width="18.65234375"/>
-    <col customWidth="true" min="18" max="18" width="16.6015625"/>
+    <col customWidth="true" min="17" max="17" width="14.0625"/>
+    <col customWidth="true" min="18" max="18" width="14.0625"/>
     <col customWidth="true" min="19" max="19" width="17.578125"/>
-    <col customWidth="true" min="20" max="20" width="18.45703125"/>
-    <col customWidth="true" min="21" max="21" width="34.1796875"/>
-    <col customWidth="true" min="22" max="22" width="22.94921875"/>
+    <col customWidth="true" min="20" max="20" width="14.0625"/>
+    <col customWidth="true" min="21" max="21" width="14.0625"/>
+    <col customWidth="true" min="22" max="22" width="14.0625"/>
     <col customWidth="true" min="23" max="23" width="23.046875"/>
     <col customWidth="true" min="24" max="24" width="11.03515625"/>
-    <col customWidth="true" min="25" max="25" width="32.12890625"/>
-    <col customWidth="true" min="26" max="26" width="61.5234375"/>
-    <col customWidth="true" min="27" max="27" width="40.52734375"/>
+    <col customWidth="true" min="25" max="25" width="14.0625"/>
+    <col customWidth="true" min="26" max="26" width="14.0625"/>
+    <col customWidth="true" min="27" max="27" width="14.0625"/>
     <col customWidth="true" min="28" max="28" width="25.78125"/>
-    <col customWidth="true" min="29" max="29" width="35.15625"/>
+    <col customWidth="true" min="29" max="29" width="14.0625"/>
     <col customWidth="true" min="30" max="30" width="25.78125"/>
-    <col customWidth="true" min="31" max="31" width="23.4375"/>
+    <col customWidth="true" min="31" max="31" width="14.0625"/>
     <col customWidth="true" min="32" max="32" width="14.0625"/>
     <col customWidth="true" min="33" max="33" width="14.0625"/>
     <col customWidth="true" min="34" max="34" width="14.0625"/>
     <col customWidth="true" min="35" max="35" width="14.0625"/>
+    <col customWidth="true" min="36" max="36" width="14.0625"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -798,7 +799,12 @@
       </c>
       <c r="AI1" s="2" t="inlineStr">
         <is>
-          <t>IncludeInPublication</t>
+          <t>RandomSample</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>UseInPublication</t>
         </is>
       </c>
     </row>
@@ -948,6 +954,9 @@
         </is>
       </c>
       <c r="AI2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1099,6 +1108,9 @@
       <c r="AI3" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ3" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4">
@@ -1248,6 +1260,9 @@
       <c r="AI4" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ4" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4">
@@ -1397,6 +1412,9 @@
       <c r="AI5" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ5" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4">
@@ -1546,6 +1564,9 @@
       <c r="AI6" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ6" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4">
@@ -1695,6 +1716,9 @@
       <c r="AI7" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ7" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4">
@@ -1844,6 +1868,9 @@
       <c r="AI8" s="9" t="b">
         <v>0</v>
       </c>
+      <c r="AJ8" s="9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4">
@@ -1994,6 +2021,9 @@
       <c r="AI9" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ9" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4">
@@ -2143,6 +2173,9 @@
       <c r="AI10" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ10" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4">
@@ -2292,6 +2325,9 @@
       <c r="AI11" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ11" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4">
@@ -2442,6 +2478,9 @@
       <c r="AI12" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ12" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4">
@@ -2591,6 +2630,9 @@
       <c r="AI13" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ13" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4">
@@ -2740,6 +2782,9 @@
       <c r="AI14" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ14" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4">
@@ -2891,6 +2936,9 @@
       <c r="AI15" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ15" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4">
@@ -3040,6 +3088,9 @@
       <c r="AI16" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ16" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4">
@@ -3189,6 +3240,9 @@
       <c r="AI17" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ17" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4">
@@ -3338,6 +3392,9 @@
       <c r="AI18" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ18" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4">
@@ -3487,6 +3544,9 @@
       <c r="AI19" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ19" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4">
@@ -3636,6 +3696,9 @@
       <c r="AI20" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ20" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4">
@@ -3785,6 +3848,9 @@
       <c r="AI21" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ21" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4">
@@ -3934,6 +4000,9 @@
       <c r="AI22" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ22" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4">
@@ -4083,6 +4152,9 @@
       <c r="AI23" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ23" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4">
@@ -4232,6 +4304,9 @@
       <c r="AI24" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ24" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4">
@@ -4381,6 +4456,9 @@
       <c r="AI25" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ25" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4">
@@ -4530,6 +4608,9 @@
       <c r="AI26" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ26" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4">
@@ -4680,6 +4761,9 @@
       <c r="AI27" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ27" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4">
@@ -4829,6 +4913,9 @@
       <c r="AI28" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ28" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4">
@@ -4979,6 +5066,9 @@
       <c r="AI29" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ29" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4">
@@ -5128,6 +5218,9 @@
       <c r="AI30" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ30" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4">
@@ -5277,6 +5370,9 @@
       <c r="AI31" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ31" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4">
@@ -5426,6 +5522,9 @@
       <c r="AI32" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ32" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4">
@@ -5575,6 +5674,9 @@
       <c r="AI33" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ33" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4">
@@ -5724,6 +5826,9 @@
       <c r="AI34" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ34" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4">
@@ -5874,6 +5979,9 @@
       <c r="AI35" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ35" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4">
@@ -6024,6 +6132,9 @@
       <c r="AI36" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ36" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4">
@@ -6173,6 +6284,9 @@
       <c r="AI37" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ37" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4">
@@ -6322,6 +6436,9 @@
       <c r="AI38" s="9" t="b">
         <v>1</v>
       </c>
+      <c r="AJ38" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4">
@@ -6469,6 +6586,9 @@
         </is>
       </c>
       <c r="AI39" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6618,6 +6738,9 @@
         </is>
       </c>
       <c r="AI40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6767,6 +6890,9 @@
         </is>
       </c>
       <c r="AI41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6916,6 +7042,9 @@
         </is>
       </c>
       <c r="AI42" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7065,6 +7194,9 @@
         </is>
       </c>
       <c r="AI43" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7214,6 +7346,9 @@
         </is>
       </c>
       <c r="AI44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7363,6 +7498,9 @@
         </is>
       </c>
       <c r="AI45" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7512,6 +7650,9 @@
         </is>
       </c>
       <c r="AI46" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7662,6 +7803,9 @@
         </is>
       </c>
       <c r="AI47" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7811,6 +7955,9 @@
         </is>
       </c>
       <c r="AI48" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7960,6 +8107,9 @@
         </is>
       </c>
       <c r="AI49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8109,6 +8259,9 @@
         </is>
       </c>
       <c r="AI50" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8258,6 +8411,9 @@
         </is>
       </c>
       <c r="AI51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8407,6 +8563,9 @@
         </is>
       </c>
       <c r="AI52" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8556,6 +8715,9 @@
         </is>
       </c>
       <c r="AI53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/DB files - Excel/tblStudy.xlsx
+++ b/data/DB files - Excel/tblStudy.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcummings\OneDrive - UMASS Dartmouth\SMAST\Research\MSE Problem Framing\MSEreview\data\DB files - Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" url="C:\Users\jcummings\OneDrive - UMASS Dartmouth\SMAST\Research\MSE Problem Framing\MSEreview\data\DB files - Excel\"/>
   <xr:revisionPtr revIDLastSave="4" documentId="11_72BE1F87F8D53B06C34A16341D93CD8166D86A8E" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{91049467-EDBE-4271-B176-C8591F3F4CD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tblStudy" sheetId="2" r:id="rId1"/>
+    <sheet sheetId="2" r:id="rId1" name="tblStudy"/>
   </sheets>
   <definedNames>
-    <definedName name="tblStudy">tblStudy!$A$1:$AK$53</definedName>
+    <definedName name="tblStudy">'tblStudy'!$A$1:$AK$53</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -2226,155 +2222,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>438</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>35</v>
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>YearPub</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Drivers</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ProcessExplicit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ProblemDefinitionExplicit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ObjectivesExplicit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>AlternativesExplicit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>TradeOffsExplicit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>DecisionExplicit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>OptimalAltExplicit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>RoleSpecification</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>OpenMeetings</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ResultsAdopted</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ProblemDefinition</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ObjElicitationMethod</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>TradeOffMethod_Exp</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>TradeOffMethod_Sub</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Decision</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Leader</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Participants</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>ObjElicitationSource_Exp</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>ObjElicitationSource_Sub</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>ProcedureElicitation_Exp</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>ProcedureElicitation_Sub</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>ConsequencePrediction</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>FullCitation</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>DOI</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>RandomSample</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>UseInPublication</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I2" t="s">
-        <v>56</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hicks et. al.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Merluccius productus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NE Pacific Ocean</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-129</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pacific Hake Fishery</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -2406,23 +2492,35 @@
       <c r="S2" t="b">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>448</v>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Fishery;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Analysts;Fishery;Managers</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Analysts;Fishery;Management</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Hicks, A. C., Cox, S. P., Taylor, N., Taylor, I. G., Grandin, C., &amp; Ianelli, J. N. (2016). Conservation and yield performance of harvest control rules for the transboundary Pacific hake fishery in US and Canadian waters. Management Science in Fisheries: An Introduction to Simulation-based Methods, 69.</t>
+        </is>
       </c>
       <c r="AJ2" t="b">
         <v>0</v>
@@ -2431,24 +2529,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H3" t="s">
-        <v>452</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cox and Kronlund</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-130</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>British Columbia Sablefish</t>
+        </is>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -2480,20 +2588,30 @@
       <c r="S3" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>455</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>456</v>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Fishery;Government</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Fishery</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Fishery;Government</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Cox, S. P., &amp; Kronlund, A. R. (2016). Model-based management procedures for the sablefish fishery in British Columbia, Canada. Management Science in Fisheries: An Introduction to Simulation-based Methods, 86.</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>While the request to evaluate management was started by the fishery and government, it seems that the MSE was lead by the researchers, and the researchers made most of the decisions about what direction to take the MSE.</t>
+        </is>
       </c>
       <c r="AJ3" t="b">
         <v>0</v>
@@ -2502,24 +2620,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>458</v>
-      </c>
-      <c r="G4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H4" t="s">
-        <v>460</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Breen et. al.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>New Zealand rock lobster</t>
+        </is>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -2551,20 +2679,30 @@
       <c r="S4" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>463</v>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Fishery;Government</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Analysts;Fishery</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Analysts;Fishery</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Breen, P., Bentley, N., Haist, V., Starr, P., &amp; Sykes, D. (2016). Management procedures for New Zealand rock lobster stocks. Management Science in Fisheries: An Introduction to Simulation-based Methods, 105.</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>There was a good deal of iteration occuring in this project that makes clear identification of the process, objectives, and management tools difficult.  Stakeholder interaction occurred, but it is not documented how it occurred, and in particular what effect that interaction had on the set of objectives and management tools considered.  It seems as if a number of decisions were made by the researchers in terms of moving from vague objectives to performance measures, and what set of performance measures were considered.  Stakeholders did explicitly identify some management tools to evaluate.  A large set of objectives was developed, but only a limited set of those objectives are presented in the results.  It is unclear how the final set was selected, although there is some discussion of a pareto-optimal set of management procedures.</t>
+        </is>
       </c>
       <c r="AJ4" t="b">
         <v>0</v>
@@ -2573,24 +2711,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G5" t="s">
-        <v>466</v>
-      </c>
-      <c r="H5" t="s">
-        <v>467</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Szuwalski and Punt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-161</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eastern Bering Sea snow crab</t>
+        </is>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -2622,20 +2770,30 @@
       <c r="S5" t="b">
         <v>0</v>
       </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>469</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>471</v>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Analysts;Government</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Analysts</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Szuwalski, C.S., Punt, A.E., (2016). Fisheries management for regime-based recruitment: lessons from a management strategy evaluation for the fishery for snow crab in the eastern Bering Sea. Management Science in Fisheries: An Introduction to Simulation-based Methods, 105.</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Results are not provided for all of the objectives listed in the text.  The authors state that they followed best practices for MSE such as: "incorporating managers and stakeholders in the selection of objectives and performance metrics", but it is not clear how that occurred.  This article and Punt et al. 2014 will be useful to return to for our climate work.</t>
+        </is>
       </c>
       <c r="AJ5" t="b">
         <v>0</v>
@@ -2644,24 +2802,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>473</v>
-      </c>
-      <c r="G6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H6" t="s">
-        <v>475</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hillary et. al.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Southern bluefin tuna</t>
+        </is>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -2693,20 +2861,30 @@
       <c r="S6" t="b">
         <v>0</v>
       </c>
-      <c r="Y6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>479</v>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Government;Scientists</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Hillary, R. M., Preece, A. L., Davies, C. R., Kurota, H., Sakai, O., Itoh, T., ... &amp; Branch, T. A. (2016). Managing international tuna stocks via the management procedure approach. Management Science in Fisheries: An Introduction to Simulation-based Methods, 147.</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>A management commision representing nations participating in the fishery was created.  This commision lead this MSE and was the source of the objs and procedures. The list of objectives does not match the set of performance criteria displayed in the results figure.</t>
+        </is>
       </c>
       <c r="AJ6" t="b">
         <v>0</v>
@@ -2715,24 +2893,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H7" t="s">
-        <v>483</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jones et al</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-81</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lake Erie Walleye</t>
+        </is>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -2764,20 +2952,30 @@
       <c r="S7" t="b">
         <v>0</v>
       </c>
-      <c r="Y7" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>485</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>486</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>487</v>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Fishery;Management</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Fishery;Managers</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Fishery;Management</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Jones, M. L., Catalano, M. J., Peterson, L. K., &amp; Berger, A. M. (2016). Stakeholder-centered development of a harvest control rule for Lake Erie walleye. Management Science in Fisheries: an Introduction to Simulation-based Methods, 163-183.</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>An explicit decision making process was followed for which a decision making body was established that included managers and stakeholders from the impacted regions and stakeholder groups.  Nice results section with a variety of figures and tables.</t>
+        </is>
       </c>
       <c r="AJ7" t="b">
         <v>0</v>
@@ -2786,24 +2984,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>489</v>
-      </c>
-      <c r="G8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H8" t="s">
-        <v>491</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dichmont et al</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Australian Northern Prawn Fishery</t>
+        </is>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -2835,17 +3043,25 @@
       <c r="S8" t="b">
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>492</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>493</v>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Dichmont, C. M., Punt, A. E., Deng, R. A., Pascoe, S., &amp; Buckworth, R. C. (2016). Northern prawn fishery: beyond biologically centred harvest strategies. Management Science in Fisheries: An Introduction to Simulation-based Methods, 184.</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>This MSE report is a summary of multiple iterations of an MSE approach to prawn management in Australia.  It includes accounting for economic impacts, with and bioeconomics model, and impacts to other species.  Objiectives were not explicitly weighted, but based on iterative feedback some trade-offs between objectives were apparently evaluated.</t>
+        </is>
       </c>
       <c r="AJ8" t="b">
         <v>0</v>
@@ -2854,33 +3070,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>494</v>
-      </c>
-      <c r="G9" t="s">
-        <v>495</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Williams et. al.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>coral trout (Plectropomus spp.)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Torres Strait, Australia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Torres Strait Finfish Fishery</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Multiple Sectors in Fishery</t>
+        </is>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -2912,44 +3144,71 @@
       <c r="S9" t="b">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" t="s">
-        <v>37</v>
-      </c>
-      <c r="W9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>497</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>498</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>50</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>What management strategy from a set of area closures, seasonal closures, and minimum size limits (an effort proxy) will best achieve the harvest, conservation, and economic objectives of the indigenous and non-indigenous finfish fisheries in Torres Strait Australia?</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Objectives were elicited in consultation with stakeholders.  While stakeholders are mentioned an explicit listing of the stakeholders involved in the objective stage and the methodology used to conduct the elicitation are not provided.</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Facilitators;Fishery;Government;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Fishery;Government;Management</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Fishery;Government;Management</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Williams, A. J., Little, L. R., and Begg, G. A. 2011. Balancing indigenous and non-indigenous commercial objectives in a coral reef finfish fishery. –_x000d_
+ICES Journal of Marine Science, 68: 834–847.</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsr034</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>This MSE has an example of the downfall of setting target levels for objectives rather than using a max vs. min. approach because no strategies achieve the target.  The description of this MSE indicates that stakeholders were involved in the process, but the roles of the stakeholders, and a description of the process are not provided.  It is unclear who lead this MSE.  While the objectives are defined as target probabilities, the results are not presented this way.  They are presented in terms of the probability inputs.  No trade-off analysis occurred, so no optimal alternative is provided.  No decision or reporting of subsequent use of the analysis is documented.</t>
+        </is>
       </c>
       <c r="AJ9" t="b">
         <v>1</v>
@@ -2958,33 +3217,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>500</v>
-      </c>
-      <c r="G10" t="s">
-        <v>466</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>56</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Punt et. al.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>red king crab (Paralithodes camtschaticus)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bristol Bay, Alaska</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-161</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bristol Bay, Alaska Red King Crab</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -3016,50 +3291,80 @@
       <c r="S10" t="b">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>61</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>How large a buffer should be set on harvest levels for Red King crab in Bristol Bay, Alaska to account for uncertainty in the assessment of the available harvest?</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>They weren't.  The set of performance metrics were seemingly selected by the scientists conducting the evaluation.</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Punt, A. E., Siddeek, M. S. M., Garber-Yonts, B., Dalton, M., Rugolo, L., Stram, D., Turnock, B. J., and Zheng, J. 2012. Evaluating the impact of buffers to account for scientific uncertainty when setting TACs: application to red king crab in Bristol Bay, Alaska. – ICES Journal of Marine Science, 69: 624–634</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fss047</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>This article is not presented explicitly as a management strategy evaluation, but is discussed as being a management strategy evaluation minus a full operating model.  Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+        </is>
       </c>
       <c r="AJ10" t="b">
         <v>1</v>
@@ -3068,33 +3373,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>501</v>
-      </c>
-      <c r="G11" t="s">
-        <v>502</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Little et. al.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>common coral trout (Plectropomus leopardus), red throat emperor (Lethrinus miniatus)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Great Barrier Reef, Australia</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Great Barrier Reef Coral Reef Finfish Fishery</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -3126,50 +3447,80 @@
       <c r="S11" t="b">
         <v>0</v>
       </c>
-      <c r="T11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" t="s">
-        <v>69</v>
-      </c>
-      <c r="V11" t="s">
-        <v>37</v>
-      </c>
-      <c r="W11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>72</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>What is the effect of effort controls and area closures on the finfish fihery of the great barrier reef?</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>It is unclear if there was any elicitation as there is not process documentation.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Little, L. R., Punt, A. E., Mapstone, B. D., Begg, G. A., Goldman, B., and Ellis, N. 2009. Different responses to area closures and effort controls for sedentary and migratory harvested species in a multispecies coral reef linefishery. – ICES Journal of Marine Science, 66: 1931–1941.</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsp164</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+        </is>
       </c>
       <c r="AJ11" t="b">
         <v>1</v>
@@ -3178,33 +3529,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>458</v>
-      </c>
-      <c r="G12" t="s">
-        <v>503</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Klaer et. al.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>tiger flathead (Neoplatycephalus richardsoni), jackass morwong (Nemadactylus macropterus), school whiting (Sillago flindersi)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>South eastern Australia</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Southern and Eastern Scalefish and Shark Fishery</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Stock Status</t>
+        </is>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -3236,50 +3603,81 @@
       <c r="S12" t="b">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s">
-        <v>37</v>
-      </c>
-      <c r="W12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>504</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>72</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Can harvest control rules updated based on changes to catch length achieve the management objectives of the Southern and Eastern Scalefish and Shark Fishery?</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>While it is noted that management objectives for the fishery are defined by a government agency, it is unclear if the objectives used here are those objectives, or how those objectives were elicted.</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Neil L. Klaer, Sally E. Wayte, Gavin Fay,_x000d_
+An evaluation of the performance of a harvest strategy that uses an average-length-based assessment method. 2012. Fisheries Research, Volumes 134–136, Pages 42-51.</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2012.08.010</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.</t>
+        </is>
       </c>
       <c r="AJ12" t="b">
         <v>1</v>
@@ -3288,33 +3686,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>506</v>
-      </c>
-      <c r="G13" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Curtis et. al.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Western Pacific Leatherback Turtles (Dermochelys coriacea)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>U.S. West Coast EEZ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-126</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>California drift gillnet fishery</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Monitoring Methodology</t>
+        </is>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -3346,50 +3760,80 @@
       <c r="S13" t="b">
         <v>0</v>
       </c>
-      <c r="T13" t="s">
-        <v>87</v>
-      </c>
-      <c r="U13" t="s">
-        <v>88</v>
-      </c>
-      <c r="V13" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>508</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>91</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>What limit reference points in the California drift gillnet fishery will best achieve threshold management objectives for Western Pacific Leatherback Turtles?</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Objectives weren't elicted.  They were selected by the scientists based on IUCN and ESA criteria.</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Curtis KA, Moore JE, Benson SR (2015) Estimating Limit Reference Points for Western Pacific Leatherback Turtles (Dermochelys coriacea) in the U.S. West Coast EEZ. PLoS ONE 10(9): e0136452. https://doi.org/10.1371/journal.pone.0136452</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>10.1371/journal.pone.0136452</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>PLoS ONE</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Seemingly no interaction with any stakeholders or decision makers occurred, and this was mainly a simulation study and not a decision making exercise.  In addition, the analysis is disconnected from the system in which the decision is actually being made.  That is, rather than conduct a trade-off analysis on the harvest rate in the fishery that results in the optimal result there and for leatherbacks, acceptable leatherback status is feed into a decision making process for the fishery.  This treatment of these linked problems has built in objective weighting of the leatherback objectives by treating them as constraints.</t>
+        </is>
       </c>
       <c r="AJ13" t="b">
         <v>1</v>
@@ -3398,33 +3842,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>450</v>
-      </c>
-      <c r="G14" t="s">
-        <v>443</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cox et al</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sablefish (Anoplopoma fimbria)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>British Columbia (Canada)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-129</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>multi-fleet multi-gear sablefish (Anoplopoma fimbria) fishery in British Columbia (Canada)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -3456,50 +3916,80 @@
       <c r="S14" t="b">
         <v>0</v>
       </c>
-      <c r="T14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U14" t="s">
-        <v>98</v>
-      </c>
-      <c r="V14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>509</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>510</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>102</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Our specific objectives are to: (1) show how uncertainty in a complex stock assessment model leads to alternative BRPs and conservation objectives for the sablefish population, (2) use a closed-loop simulation model to compare how alternative operational control point choices affect management ability to meet conservation objectives defined by biological reference points, as well as short-term fishery economic objectives defined by stakeholders, and (3) test robustness of MPs under an unlikely, yet risky, population dynamics scenario.</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>It is unclear if there was any elicitation as there is not documentation of the objective development process.</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Cox, S.P., Kronlund, A.R. and Benson, A.J., 2013. The roles of biological reference points and operational control points in management procedures for the sablefish (Anoplopoma fimbria) fishery in British Columbia, Canada. Environmental Conservation, 40(4), pp.318-328.</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>10.1017/S0376892913000271</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Environmental Conservation</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>This was one of many articles to come out of MSEs published by the same authors related to their work on BS sablefish.  The process was not fully documented here, apart from the alternatives selected in this study.  It is possible the process is more fully documented in earlier articles related to this fishery.</t>
+        </is>
       </c>
       <c r="AJ14" t="b">
         <v>1</v>
@@ -3508,33 +3998,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s">
-        <v>511</v>
-      </c>
-      <c r="G15" t="s">
-        <v>512</v>
-      </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" t="s">
-        <v>513</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Punt and Hobday</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>rock lobster (Jasus edwardsii)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Victoria, Australia rock lobster fishery</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Allowable Catch Adjustment;Spatial Structure;Uncertainty</t>
+        </is>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -3566,50 +4072,82 @@
       <c r="S15" t="b">
         <v>0</v>
       </c>
-      <c r="T15" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" t="s">
-        <v>37</v>
-      </c>
-      <c r="W15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>514</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>515</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>110</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>What spatial structure of stock assessments and management strategies will best achieve the management objectives for Rock lobster off of Victoria Australia?</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Unknown, no documentation of the process for objective determination</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>André E. Punt &amp; David Hobday (2009) Management strategy evaluation_x000d_
+for rock lobster, Jasus_x0001_edwardsii, off Victoria, Australia: Accounting for uncertainty in stock_x000d_
+structure, New Zealand Journal of Marine and Freshwater Research, 43:1, 485-509</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>10.1080/00288330909510017</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>New Zealand Journal of Marine and Freshwater Research</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>MSE focused on the spatial scale of stock assessments and management.  The results indicate that for the objectives considered a smaller spatial scale is best.  However, they note this approach is not feasible, so management cost objectives were clearly lacking.  No process documentation is included in the article.</t>
+        </is>
       </c>
       <c r="AJ15" t="b">
         <v>1</v>
@@ -3618,33 +4156,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>516</v>
-      </c>
-      <c r="G16" t="s">
-        <v>517</v>
-      </c>
-      <c r="H16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" t="s">
-        <v>518</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dichmont et. al.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tiger prawn (Penaeus esculentus), Tiger prawn (P. semisulcatus), Endeavour prawn (Metapenaeus endeavouri), Endeavour prawn (Metapenaeus ensis), Northern Australia prawn ecosystem</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Northern Australia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Northern Australia prawn fishery</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Ecosystem Based Management;Spatial Structure</t>
+        </is>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -3676,50 +4230,80 @@
       <c r="S16" t="b">
         <v>0</v>
       </c>
-      <c r="T16" t="s">
-        <v>115</v>
-      </c>
-      <c r="U16" t="s">
-        <v>116</v>
-      </c>
-      <c r="V16" t="s">
-        <v>37</v>
-      </c>
-      <c r="W16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>519</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>119</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>What spatial closure plan will best achieve the objectives for management of the ecosystem and prawn fishery occuring in northern Australia?</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Undocumented.  Also, many of the performance measure are not associated with a desired status, and result in double (or more) counting.</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Dichmont, C.M., Ellis, N., Bustamante, R.H., Deng, R., Tickell, S., Pascual, R., Lozano‐Montes, H. and Griffiths, S., 2013. EDITOR'S CHOICE: Evaluating marine spatial closures with conflicting fisheries and conservation objectives. Journal of Applied Ecology, 50(4), pp.1060-1070.</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>10.1111/1365-2664.12110</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Journal of Applied Ecology</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>The objectives for this study are a mess.  There is a substantial degree of overlap between performance measures, and in many cases it is unclear what the motivation for a performance measure is.  There is no documentation of interation with stakeholders and this appears to be primarily a simulation study.</t>
+        </is>
       </c>
       <c r="AJ16" t="b">
         <v>1</v>
@@ -3728,33 +4312,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" t="s">
-        <v>520</v>
-      </c>
-      <c r="G17" t="s">
-        <v>521</v>
-      </c>
-      <c r="H17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" t="s">
-        <v>124</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Prellezo et. al.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Megrim (Lepidorhombus whiffiagonis), Hake (Merluccius merluccius), Black anglerfish (Lophius budegassa), White anglerfish (Lophius piscatorius), Western Horse mackeral (Trachurus trachurus), Mackeral (Scomber scombrus), Blue whiting (Micromesistius poutassou), Rays (Leucoraja naevus), Inshore squids (Loliginidae, Seabass (Dicentrarchus labrax), Cuttlefish (Sepiidae), bobtail squids (Sepiolidae), Red mullet (Mullus surmuletus)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bay of Biscay</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bay of Biscay trawl fishery</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Landing Regulations</t>
+        </is>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -3786,50 +4386,80 @@
       <c r="S17" t="b">
         <v>0</v>
       </c>
-      <c r="T17" t="s">
-        <v>125</v>
-      </c>
-      <c r="U17" t="s">
-        <v>126</v>
-      </c>
-      <c r="V17" t="s">
-        <v>37</v>
-      </c>
-      <c r="W17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>129</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>What effect with a landing obligation, and some limited exceptions, have on the Bay of Biscay trawl fishery?</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Objectives and performance measures are not documented and can only be extrapolated from the results.</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Prellezo, R., Carmona, I. and García, D., 2016. The bad, the good and the very good of the landing obligation implementation in the Bay of Biscay: A case study of Basque trawlers. Fisheries Research, 181, pp.172-185.</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2016.04.016</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>This study was difficult to follow because it was seemingly written by an english as a second language writer, and the performance metrics weren't specified separately from the results.  Presented as a simulation study without connection to a decision process.</t>
+        </is>
       </c>
       <c r="AJ17" t="b">
         <v>1</v>
@@ -3838,33 +4468,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>516</v>
-      </c>
-      <c r="G18" t="s">
-        <v>517</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" t="s">
-        <v>522</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dichmont et. al.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tiger prawn (Penaeus esculentus), Tiger prawn (Penaeus semisulcatus)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Northern Australia</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Northern Australia prawn fishery</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Monitoring Methodology;Uncertainty</t>
+        </is>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -3896,50 +4542,80 @@
       <c r="S18" t="b">
         <v>0</v>
       </c>
-      <c r="T18" t="s">
-        <v>132</v>
-      </c>
-      <c r="U18" t="s">
-        <v>133</v>
-      </c>
-      <c r="V18" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>136</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>What uncertainties are most influential to the achievement of fishery objectives in the Autralian northern prawn fishery?</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Seemingly governmentally established reference points were translated into performance measures by the scientists.</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Dichmont, C.M., Deng, A.R., Punt, A.E., Venables, W. and Haddon, M., 2006. Management strategies for short lived species: The case of Australia's Northern Prawn Fishery: 3. Factors affecting management and estimation performance. Fisheries Research, 82(1-3), pp.235-245.</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2006.06.008</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>This is more of a value of information analysis than a management strategy evaluation, except without presenting the results in a VoI framework.  Put another way, this was a sensitivity analysis.</t>
+        </is>
       </c>
       <c r="AJ18" t="b">
         <v>1</v>
@@ -3948,33 +4624,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" t="s">
-        <v>494</v>
-      </c>
-      <c r="G19" t="s">
-        <v>523</v>
-      </c>
-      <c r="H19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" t="s">
-        <v>524</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Plagányi et. al.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sandfish, black teatfish, surf redfish, white teatfish, deepwater redfish, hairy blackfish (Actinopyga miliaris), prickly redfish (Thelenota ananas), leopardfish (Bohadschia argus)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Torres Strait</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Torres Strait Sea cucumber fishery</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Climate Change;Monitoring Methodology;Uncertainty</t>
+        </is>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -4006,50 +4698,80 @@
       <c r="S19" t="b">
         <v>0</v>
       </c>
-      <c r="T19" t="s">
-        <v>141</v>
-      </c>
-      <c r="U19" t="s">
-        <v>142</v>
-      </c>
-      <c r="V19" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>525</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>145</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>How will climate change, management strategy, and monitoring influence the status of the Torres Strait Sea cucumber fishery?</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>They were not, the scientists selected objectives, and a separate set of performance measures.</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Expert Elicitation;Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Plagányi, É.E., Skewes, T.D., Dowling, N.A. and Haddon, M., 2013. Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example. Climatic Change, 119(1), pp.181-197.</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>10.1007/s10584-012-0596-0</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Climatic Change</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Odd that the performance measures selected do not correspond with the objective set developed.  Simulation study only</t>
+        </is>
       </c>
       <c r="AJ19" t="b">
         <v>1</v>
@@ -4058,33 +4780,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" t="s">
-        <v>527</v>
-      </c>
-      <c r="G20" t="s">
-        <v>527</v>
-      </c>
-      <c r="H20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20" t="s">
-        <v>56</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Wiedenmann et. al.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Simulated fishery in U.S.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -4116,50 +4854,80 @@
       <c r="S20" t="b">
         <v>0</v>
       </c>
-      <c r="T20" t="s">
-        <v>150</v>
-      </c>
-      <c r="U20" t="s">
-        <v>151</v>
-      </c>
-      <c r="V20" t="s">
-        <v>37</v>
-      </c>
-      <c r="W20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>528</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>154</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>How effective are various approaches to setting acceptable biological catch at avoiding overfishing resulting from assessment uncertainty?</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Simulation study without stakeholder input</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Wiedenmann, J., Wilberg, M., Sylvia, A. and Miller, T., 2016. An evaluation of acceptable biological catch (ABC) harvest control rules designed to limit overfishing. Canadian Journal of Fisheries and Aquatic Sciences, 74(7), pp.1028-1040.</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>10.1139/cjfas-2016-0381</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Canadian Journal of Fisheries and Aquatic Sciences</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>A simlulation study, not tied to any particular fishery.</t>
+        </is>
       </c>
       <c r="AJ20" t="b">
         <v>1</v>
@@ -4168,33 +4936,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" t="s">
-        <v>529</v>
-      </c>
-      <c r="G21" t="s">
-        <v>530</v>
-      </c>
-      <c r="H21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" t="s">
-        <v>531</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Smith et. al.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>horseshoe crabs (Limulus polyphemus), red knots (Calidris canutus rufa)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Delaware Bay</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-75</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Delaware Bay Horsewhoe crab fishery</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Allowable Catch Adjustment;Monitoring Methodology;Species Interactions;Uncertainty</t>
+        </is>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -4226,41 +5010,65 @@
       <c r="S21" t="b">
         <v>0</v>
       </c>
-      <c r="T21" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" t="s">
-        <v>160</v>
-      </c>
-      <c r="V21" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>534</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>519</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>164</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>How to sustainably harvest [horseshoe crabs in Delaware Bay], including moratoria, given multispecies objectives?</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Through consultations and public meetings with managers and stakeholders with additional input from scientific experts on sex ratio and carrying capacity.  While the objective function is reported, the full steps taken to produce it aren't explicit.</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>MCDA</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Analysts;Decision Makers;Experts;Facilitators;Fishery;Government;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Analysts;Fishery;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Analysts;Fishery;Management</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Dynamic programming;Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Smith, D.R., McGowan, C.P., Daily, J.P., Nichols, J.D., Sweka, J.A. and Lyons, J.E., 2013. Evaluating a multispecies adaptive management framework: must uncertainty impede effective decision‐making?. Journal of Applied Ecology, 50(6), pp.1431-1440.</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>10.1111/1365-2664.12145</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Journal of Applied Ecology</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Study combines active adaptive management with management strategy evaluation.  Documentation of the process is not particularly detailed as presented here, but that stakeholder elicitiation occurred is documented. A value of information analysis was conducted in addition to the MSE.</t>
+        </is>
       </c>
       <c r="AJ21" t="b">
         <v>1</v>
@@ -4269,33 +5077,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" t="s">
-        <v>529</v>
-      </c>
-      <c r="G22" t="s">
-        <v>535</v>
-      </c>
-      <c r="H22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" t="s">
-        <v>522</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wetzel and Punt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NA, two generic simulated species (flathish and rockfish)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>United States West Coast</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-125</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>US west coast groundfish</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Monitoring Methodology;Uncertainty</t>
+        </is>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -4327,50 +5151,80 @@
       <c r="S22" t="b">
         <v>0</v>
       </c>
-      <c r="T22" t="s">
-        <v>169</v>
-      </c>
-      <c r="U22" t="s">
-        <v>170</v>
-      </c>
-      <c r="V22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>173</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>What are the impacts of monitoring method and stock assessment approachs associated with those methods to assessment performance?</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Wetzel, C.R. and Punt, A.E., 2015. Evaluating the performance of data-moderate and catch-only assessment methods for US west coast groundfish. Fisheries research, 171, pp.170-187.</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2015.06.005</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Simulation analysis seemingly unassociated with fishery problem development.  Monitoring methodology problem that did not take a VoI approach, or incorporate objectives beyond those related to estimation error.</t>
+        </is>
       </c>
       <c r="AJ22" t="b">
         <v>1</v>
@@ -4379,33 +5233,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" t="s">
-        <v>536</v>
-      </c>
-      <c r="G23" t="s">
-        <v>537</v>
-      </c>
-      <c r="H23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" t="s">
-        <v>538</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bastardie et. al.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>eastern Baltic cod (Gadus morhua)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Baltic Sea</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Baltic Cod fishery</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Environmental Conditions;Fishing Behavior</t>
+        </is>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -4437,50 +5307,80 @@
       <c r="S23" t="b">
         <v>0</v>
       </c>
-      <c r="T23" t="s">
-        <v>179</v>
-      </c>
-      <c r="U23" t="s">
-        <v>180</v>
-      </c>
-      <c r="V23" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>183</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>How will the recovery of Baltic cod be influenced by catch limit versus effort limit regulations, environmental conditions, and fleet behavior?</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Unspecified.  Figures display more performance measures than described in the text.  Only those mentioned in the text are listed.</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Francois Bastardie, J. Rasmus Nielsen, Gerd Kraus; The eastern Baltic cod fishery: a fleet-based management strategy evaluation framework to assess the cod recovery plan of 2008, ICES Journal of Marine Science, Volume 67, Issue 1, 1 January 2010, Pages 71–86</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsp228</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>This is a simulation analysis, but it may have been initiated due to management questioning the impact of recently implemented management changes.  The performance measures are not well documented, and the measures described do not correspond to the measures displayed in the results.</t>
+        </is>
       </c>
       <c r="AJ23" t="b">
         <v>1</v>
@@ -4489,33 +5389,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" t="s">
-        <v>539</v>
-      </c>
-      <c r="G24" t="s">
-        <v>474</v>
-      </c>
-      <c r="H24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kolody et. al.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Southern Bluefin Tuna (Thunnus maccoyi)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Southern Ocean</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Southern Bluefin Tuna Fishery</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -4547,41 +5463,65 @@
       <c r="S24" t="b">
         <v>0</v>
       </c>
-      <c r="T24" t="s">
-        <v>189</v>
-      </c>
-      <c r="U24" t="s">
-        <v>190</v>
-      </c>
-      <c r="V24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>193</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>What management proceedure will best meet the management objectives for southern bluefin tuna?</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Through a series of workshops in which the management body provided objectives.  Only the SSB objective was explicitly established.  It seems that objective weights, or contraints for other objectives were attempted during the objective elicitation stage, which proved ineffective.</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Decision Makers;Facilitators;Fishery;Government;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Kolody, D., Polacheck, T., Basson, M. and Davies, C., 2008. Salvaged pearls: lessons learned from a floundering attempt to develop a management procedure for Southern Bluefin Tuna. Fisheries Research, 94(3), pp.339-350.</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2008.08.016</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>This is a restrospective look back at an MSE process to derive lessons for fisheries management, and not exactly a documentation of a MSE itself.</t>
+        </is>
       </c>
       <c r="AJ24" t="b">
         <v>1</v>
@@ -4590,33 +5530,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" t="s">
-        <v>541</v>
-      </c>
-      <c r="G25" t="s">
-        <v>542</v>
-      </c>
-      <c r="H25" t="s">
-        <v>197</v>
-      </c>
-      <c r="I25" t="s">
-        <v>56</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dawson et. al.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sea lamprey (Petromyzon marinus)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Great Lakes, USA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-83</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>integrated pest management (IPM) program implemented by the Great Lakes Fishery Commission (GLFC) to control invasive sea lamprey (Petromyzon marinus) in the Laurentian Great Lakes</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -4648,50 +5604,80 @@
       <c r="S25" t="b">
         <v>0</v>
       </c>
-      <c r="T25" t="s">
-        <v>198</v>
-      </c>
-      <c r="U25" t="s">
-        <v>170</v>
-      </c>
-      <c r="V25" t="s">
-        <v>37</v>
-      </c>
-      <c r="W25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>544</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>201</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>"Managers implementing IPM must decide how to allocate resources among implementation of status quo control strategies, research, development, implementation of novel pest management strategies, and refinement of existing management strategies."</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Dawson, H.A., Jones, M.L., Irwin, B.J., Johnson, N.S., Wagner, M.C. and Szymanski, M.D., 2016. Management Strategy Evaluation Of Pheromone‐Baited Trapping Techniques To Improve Management Of Invasive Sea Lamprey. Natural Resource Modeling, 29(3), pp.448-469.</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>10.1111/nrm.12096</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Natural Resource Modeling</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Simulaiton study without documentation of the decision making process.  Not the usual MSE focused on harvest management, but a case of aiming to cause mortality in a cost effective way.</t>
+        </is>
       </c>
       <c r="AJ25" t="b">
         <v>1</v>
@@ -4700,33 +5686,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
       <c r="A26">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F26" t="s">
-        <v>442</v>
-      </c>
-      <c r="G26" t="s">
-        <v>545</v>
-      </c>
-      <c r="H26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I26" t="s">
-        <v>546</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Froehlich et. al.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dungeness crab (Metacarcinus magister)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hood Canal, Washington, USA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-123</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Hood Canal Dungeness crab fishery</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Environmental Conditions;Implementation Uncertainty;Uncertainty</t>
+        </is>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -4758,47 +5760,75 @@
       <c r="S26" t="b">
         <v>0</v>
       </c>
-      <c r="T26" t="s">
-        <v>206</v>
-      </c>
-      <c r="U26" t="s">
-        <v>207</v>
-      </c>
-      <c r="V26" t="s">
-        <v>37</v>
-      </c>
-      <c r="W26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>548</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>528</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>210</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>What Hood Canal Dungeness crab management strategies are robust to environmental and management uncertainty?</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Co-managers’ objectives and interests. Several in-person and remote meetings with Washington State and tribal co-managers were organized to reveal key interests and considerations regarding harvest strategy for testing. The input from the co-managers gave a clearer conceptual understanding of the model content and assumptions.</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Fishery;Government;Scientists</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Fishery;Government</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Expert elicitation;Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Froehlich, H.E., Essington, T.E. and McDonald, P.S., 2017. When does hypoxia affect management performance of a fishery? A management strategy evaluation of Dungeness crab (Metacarcinus magister) fisheries in Hood Canal, Washington, USA. Canadian journal of fisheries and aquatic sciences, 74(6), pp.922-932.</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>10.1139/cjfas-2016-0269</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Canadian Journal of Fisheries and Aquatic Sciences</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Not a management strategy identification effort, but a consequence of environmental conditions study.</t>
+        </is>
       </c>
       <c r="AJ26" t="b">
         <v>1</v>
@@ -4807,33 +5837,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
       <c r="A27">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" t="s">
-        <v>212</v>
-      </c>
-      <c r="F27" t="s">
-        <v>549</v>
-      </c>
-      <c r="G27" t="s">
-        <v>517</v>
-      </c>
-      <c r="H27" t="s">
-        <v>213</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Punt et. al.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Southern rock lobster (Jasus edwardsii)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Great Australian Bight</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Australian Southern Zone Southern rock lobster fishery</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -4865,47 +5911,76 @@
       <c r="S27" t="b">
         <v>1</v>
       </c>
-      <c r="T27" t="s">
-        <v>214</v>
-      </c>
-      <c r="U27" t="s">
-        <v>170</v>
-      </c>
-      <c r="V27" t="s">
-        <v>37</v>
-      </c>
-      <c r="W27" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>550</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Which of two proposed decision rules will best meet the objectives of the Australian Southern Zone Southern rock lobster fishery?</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Fishery;Government;Scientists</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Fishery;Government</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Fishery;Government</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Punt, A.E., McGarvey, R., Linnane, A., Phillips, J., Triantafillos, L. and Feenstra, J., 2012. Evaluating empirical decision rules for southern rock lobster fisheries: a South Australian example. Fisheries Research, 115, pp.60-71.</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2011.11.010</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Although the number of scenarios considered was not sufficient to conclude that all possible factors were considered, and the various scenarios were not weighted by the prior probabilities, the results of the analyses presented above assisted the selection of a DR for SZ rock lobster. The selected DR was the discrete rule. This selection was based on a number of factors, some based on results of the MSE and some based on other considerations. Specifically,_x000d_
+the performances of the two DRs were fairly similar with neither “dominating” the other. However, the discrete DR was seen to be more balanced (equally likely to increase as decrease the TACC) whereas it is more difficult to increase the TACC in the linear DR. Also, the discrete DR was proposed by the fishing industry and its acceptance increased stakeholder buy-in, a factor which cannot be over-emphasized during times when catch-rate [is in decline]</t>
+        </is>
       </c>
       <c r="AJ27" t="b">
         <v>1</v>
@@ -4914,33 +5989,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
       <c r="A28">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" t="s">
-        <v>551</v>
-      </c>
-      <c r="G28" t="s">
-        <v>552</v>
-      </c>
-      <c r="H28" t="s">
-        <v>221</v>
-      </c>
-      <c r="I28" t="s">
-        <v>56</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Irwin et. al.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yellow perch (Perca flavescens)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Lake Michigan, USA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-87</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lake Michigan Yellow perch fishery</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -4972,41 +6063,65 @@
       <c r="S28" t="b">
         <v>0</v>
       </c>
-      <c r="T28" t="s">
-        <v>222</v>
-      </c>
-      <c r="U28" t="s">
-        <v>223</v>
-      </c>
-      <c r="V28" t="s">
-        <v>37</v>
-      </c>
-      <c r="W28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>553</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>555</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>555</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>548</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>505</v>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>What harvest strategy should the Lake Michigan Committee and its constituent agencies adopt among different harvest policies to better meet their objectives for the fishery?</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>During the first workshop, participants developed a list of potential general management objectives and associated specific measures of performance during a facilitated brainstorming exercise.  Performance measures were refined through the series of workshops.</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Government;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Decision Makers;Government;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Government;Management</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Government;Management</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Expert elicitation;Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Irwin, B.J., Wilberg, M.J., Bence, J.R. and Jones, M.L., 2008. Evaluating alternative harvest policies for yellow perch in southern Lake Michigan. Fisheries Research, 94(3), pp.267-281.</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2008.05.009</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
       </c>
       <c r="AJ28" t="b">
         <v>1</v>
@@ -5015,33 +6130,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
       <c r="A29">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" t="s">
-        <v>506</v>
-      </c>
-      <c r="G29" t="s">
-        <v>556</v>
-      </c>
-      <c r="H29" t="s">
-        <v>229</v>
-      </c>
-      <c r="I29" t="s">
-        <v>557</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kuykendall et. al.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight Atlantic surfclam fishery</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Implementation Uncertainty;Spatial Structure;Uncertainty</t>
+        </is>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -5073,50 +6204,81 @@
       <c r="S29" t="b">
         <v>0</v>
       </c>
-      <c r="T29" t="s">
-        <v>230</v>
-      </c>
-      <c r="U29" t="s">
-        <v>558</v>
-      </c>
-      <c r="V29" t="s">
-        <v>37</v>
-      </c>
-      <c r="W29" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>509</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>559</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>233</v>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>The objective of our study is to evaluate a range of area management options that may improve the Atlantic surfclam stock and the Atlantic surfclam fishery in the MAB.  My rewording would be, "What area closure rules and closure duration will best achieve the objectives of the Atlantic surfclam fishery?"</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel_x000d_
+captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Kuykendall, K.M., Powell, E.N., Klink, J.M., Moreno, P.T. and Leaf, R.T., 2017. Management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Fishery Bulletin, 115(3).</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>10.7755/FB.115.3.3</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Fisheries Bulletin</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>The decision process was not explicited documented, so the degree of stakeholder interaction was difficult to determine, but seemingly some interaction with stakeholders occurred.  This was predominantly a scientist lead simulation study.  The main driver evaluated was fishing behavior.</t>
+        </is>
       </c>
       <c r="AJ29" t="b">
         <v>1</v>
@@ -5125,33 +6287,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
       <c r="A30">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" t="s">
-        <v>511</v>
-      </c>
-      <c r="G30" t="s">
-        <v>560</v>
-      </c>
-      <c r="H30" t="s">
-        <v>238</v>
-      </c>
-      <c r="I30" t="s">
-        <v>561</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fulton et. al.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17 species in EBFM plan</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Southeastern Australia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Ecosystem Based Management;Uncertainty</t>
+        </is>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -5183,47 +6361,75 @@
       <c r="S30" t="b">
         <v>0</v>
       </c>
-      <c r="T30" t="s">
-        <v>239</v>
-      </c>
-      <c r="U30" t="s">
-        <v>170</v>
-      </c>
-      <c r="V30" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>562</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>562</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>562</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>508</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>242</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Inexplicit, my version, "What management strategy will best achieve the diverse objectives of a multiple species ecosystem based fisheries management plan?"</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Fishery;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Fishery;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Fishery;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Fulton, E.A., Smith, A.D., Smith, D.C. and Johnson, P., 2014. An integrated approach is needed for ecosystem based fisheries management: insights from ecosystem-level management strategy evaluation. PLoS One, 9(1), p.e84242.</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>10.1371/journal.pone.0084242</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>PLoS ONE</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Seemingly a stakeholder process occurred in this MSE, but it isn't documented, even in the referenced technical reports.  Performance measures are ill defined, as it the normalization process, which seems to combine results into categories before normalization.  Spider plots of the normalized scores were produced, seemingly presuming equal weighting.  Taken from text, "When considering the performance of individual strategies these performance measures are considered individually, whereas for comparison across strategies they are pulled together into composite indices. For ease of interpretation and visualisation, the final composite values were then normalised over all strategies and all years so that the best result of a performance measure is assigned a value of 1 and all other values scaled accordingly."</t>
+        </is>
       </c>
       <c r="AJ30" t="b">
         <v>1</v>
@@ -5232,33 +6438,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
       <c r="A31">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" t="s">
-        <v>563</v>
-      </c>
-      <c r="G31" t="s">
-        <v>502</v>
-      </c>
-      <c r="H31" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" t="s">
-        <v>564</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Haddon and Helidoniotis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>abalone (Haliotis rubra), abalone (Haliotis laevigata)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tasmania</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tasmanian abalone fishery</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Spatial Structure;Uncertainty</t>
+        </is>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -5290,50 +6512,80 @@
       <c r="S31" t="b">
         <v>0</v>
       </c>
-      <c r="T31" t="s">
-        <v>247</v>
-      </c>
-      <c r="U31" t="s">
-        <v>248</v>
-      </c>
-      <c r="V31" t="s">
-        <v>37</v>
-      </c>
-      <c r="W31" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>565</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>251</v>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>No single problem statement provided.  My version, "What combination of legal minimum lengths will best meet the management objectives of the Tasmanian abalone fishery given the spatial structure of the abalone stocks?"</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Objectives are not stated and evaluated in the simulation, but noted in the discussion</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Haddon, M. and Helidoniotis, F., 2013. Legal minimum lengths and the management of abalone fisheries. Journal of Shellfish Research, 32(1), pp.197-208.</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>10.2983/035.032.0126</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Journal of Shellfish Research</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Seeminlgly this isn't really a MSE, in that objectives weren't established.  So seemingly, rather than develop objectives and use a simulation study to test their achievement, a simulation study was conducted, and some possible objectives are discussed after the results were determined.</t>
+        </is>
       </c>
       <c r="AJ31" t="b">
         <v>1</v>
@@ -5342,33 +6594,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
       <c r="A32">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" t="s">
-        <v>566</v>
-      </c>
-      <c r="G32" t="s">
-        <v>567</v>
-      </c>
-      <c r="H32" t="s">
-        <v>256</v>
-      </c>
-      <c r="I32" t="s">
-        <v>56</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Chen et. al.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Spanish mackerel (Scomberomorus Niphonius)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>China's Seas</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Chinese Spanish mackerel fishery</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -5400,50 +6668,80 @@
       <c r="S32" t="b">
         <v>0</v>
       </c>
-      <c r="T32" t="s">
-        <v>257</v>
-      </c>
-      <c r="U32" t="s">
-        <v>258</v>
-      </c>
-      <c r="V32" t="s">
-        <v>37</v>
-      </c>
-      <c r="W32" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>568</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>261</v>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Not explicitly stated in article, my version, "What management procedure will best meet the management objectives of the Chinese spanish mackerel fishery given uncertainty in the natural mortality rate and the limit data available to assess the stock?"</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Unstated, seemingly objectives were selected by the researchers from a set of available objectives in the DLMtoolkit.</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Chen, N., Zhang, C., Sun, M., Xu, B., Xue, Y., Ren, Y. and Chen, Y., 2018. The impact of natural mortality variations on the performance of management procedures for Spanish mackerel (Scomberomorus niphonius) in the Yellow Sea, China. Acta Oceanologica Sinica, 37(8), pp.21-30.</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>10.1007/s13131-018-1234-0</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Acta Oceanologica Sinica</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>While a prefered MP was selected, this selection is based on the authors inexplicit weighting of trade-offs, and an undocumented trade-off evaluation method.  This MSE relied on the previously developed options available in the R package DLMtoolkit.</t>
+        </is>
       </c>
       <c r="AJ32" t="b">
         <v>1</v>
@@ -5452,33 +6750,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
       <c r="A33">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" t="s">
-        <v>569</v>
-      </c>
-      <c r="G33" t="s">
-        <v>570</v>
-      </c>
-      <c r="H33" t="s">
-        <v>266</v>
-      </c>
-      <c r="I33" t="s">
-        <v>56</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Kell et. al.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Roundfish stocks: North Sea cod, haddock, saithe and whiting, northern and southern Atlantic hake, and eastern and western Baltic cod</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Northeast Atlantic</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Northeast Atlantic roundfish fishery</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Uncertainty</t>
+        </is>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -5510,50 +6824,80 @@
       <c r="S33" t="b">
         <v>0</v>
       </c>
-      <c r="T33" t="s">
-        <v>267</v>
-      </c>
-      <c r="U33" t="s">
-        <v>268</v>
-      </c>
-      <c r="V33" t="s">
-        <v>37</v>
-      </c>
-      <c r="W33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>271</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>My version, "How does uncertainty effect the results of the ICES management proceedures?"</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Not elicited, supplied by authors seemingly.</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Kell, L.T., Pilling, G.M., Kirkwood, G.P., Pastoors, M., Mesnil, B., Korsbrekke, K., Abaunza, P., Aps, R., Biseau, A., Kunzlik, P. and Needle, C., 2005. An evaluation of the implicit management procedure used for some ICES roundfish stocks. ICES Journal of Marine Science, 62(4), pp.750-759.</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>10.1016/j.icesjms.2005.01.001</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>MSE in the sense that a simultion of the management system occurred, but seemingly no problem framing, objective elicitation, or alternative elicitation occurred.</t>
+        </is>
       </c>
       <c r="AJ33" t="b">
         <v>1</v>
@@ -5562,33 +6906,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
       <c r="A34">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" t="s">
-        <v>536</v>
-      </c>
-      <c r="G34" t="s">
-        <v>537</v>
-      </c>
-      <c r="H34" t="s">
-        <v>274</v>
-      </c>
-      <c r="I34" t="s">
-        <v>522</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Horbowy</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Baltic Cod proxy</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Baltic Sea</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Generic ICES fishery, using Baltic Cod as example</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Monitoring Methodology;Uncertainty</t>
+        </is>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -5620,50 +6980,80 @@
       <c r="S34" t="b">
         <v>0</v>
       </c>
-      <c r="T34" t="s">
-        <v>275</v>
-      </c>
-      <c r="U34" t="s">
-        <v>276</v>
-      </c>
-      <c r="V34" t="s">
-        <v>37</v>
-      </c>
-      <c r="W34" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>279</v>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>My version, "what stock assessment methodology and harvest control rules best achieve the management objectives for a simulated ICES fishery?"</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Not discussed.</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Horbowy, J., 2011. Comparison of stock management with production, difference, and age-structured models using operating models. Fisheries Research, 108(1), pp.153-162.</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2010.12.015</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Simulation driving study and no discussion of the decision making preceedure was provided.  The authors ranked performance across all performance measures, applying equal weighting to each performance measure in their trade-off analysis.</t>
+        </is>
       </c>
       <c r="AJ34" t="b">
         <v>1</v>
@@ -5672,33 +7062,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
       <c r="A35">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" t="s">
-        <v>282</v>
-      </c>
-      <c r="F35" t="s">
-        <v>494</v>
-      </c>
-      <c r="G35" t="s">
-        <v>495</v>
-      </c>
-      <c r="H35" t="s">
-        <v>283</v>
-      </c>
-      <c r="I35" t="s">
-        <v>571</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ellis et. al.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>prawn</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Torres Straight</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Torres Straight prawn fishery</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Allowable Catch Adjustment;Fishing Behavior;Species Interactions;Uncertainty</t>
+        </is>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -5730,50 +7136,81 @@
       <c r="S35" t="b">
         <v>0</v>
       </c>
-      <c r="T35" t="s">
-        <v>572</v>
-      </c>
-      <c r="U35" t="s">
-        <v>284</v>
-      </c>
-      <c r="V35" t="s">
-        <v>37</v>
-      </c>
-      <c r="W35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>574</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>287</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>The problem given by the authors is contained in this paragraph, "The trawling industry is now under pressure from community groups, local legislation and international certification, to ensure the conservation of the ecosystem as a whole. Furthermore, there is now increasing recognition from both the fishing industry and the fisheries managers that sustainable harvesting requires the preservation of both the target stocks and the ecosystem in which_x000d_
+these resources are embedded. There is therefore a need for managers to understand the effects of their management actions on both the target stocks and the benthos."  My version, "What combination closures and effort restrictions will best achieve the fishing and benthic conservation objectives in the Torres Straight?"</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Not discussed</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Decision Makers;Fishery;Government;Management;Public;Scientists</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Fishery;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Ellis, N., Pantus, F., Welna, A. and Butler, A., 2008. Evaluating ecosystem-based management options: effects of trawling in Torres Strait, Australia. Continental Shelf Research, 28(16), pp.2324-2338.</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>10.1016/j.csr.2008.03.031</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Continental Shelf Research</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>A stakeholder process occurred as part of this MSE, but seemingingly it was a feedback process, not a proactive process.  At least, not problem defition or objective setting input is described.</t>
+        </is>
       </c>
       <c r="AJ35" t="b">
         <v>1</v>
@@ -5782,33 +7219,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
       <c r="A36">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" t="s">
-        <v>575</v>
-      </c>
-      <c r="E36" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" t="s">
-        <v>576</v>
-      </c>
-      <c r="G36" t="s">
-        <v>577</v>
-      </c>
-      <c r="H36" t="s">
-        <v>290</v>
-      </c>
-      <c r="I36" t="s">
-        <v>291</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bischof et. al.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>brown bear (Ursus arctos), Eurasian lynx (Lynx lynx), grey_x000d_
+wolf (Canis lupus) and wolverine (Gulo gulo)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Estonia, Latvia and Norway</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>European carnivore management</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Implementation Uncertainty</t>
+        </is>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -5840,50 +7294,80 @@
       <c r="S36" t="b">
         <v>0</v>
       </c>
-      <c r="T36" t="s">
-        <v>292</v>
-      </c>
-      <c r="U36" t="s">
-        <v>293</v>
-      </c>
-      <c r="V36" t="s">
-        <v>37</v>
-      </c>
-      <c r="W36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>294</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>519</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>296</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>My version, "What effect does implementation uncertainty have on the achievement of target harvest of european carnivores?"</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>No objectives stated.</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Bischof, R., Nilsen, E.B., Brøseth, H., Männil, P., Ozoliņš, J. and Linnell, J.D., 2012. Implementation uncertainty when using recreational hunting to manage carnivores. Journal of Applied Ecology, 49(4), pp.824-832.</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>10.1111/j.1365-2664.2012.02167.x</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Journal of Applied Ecology</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>This was simulation study only, in that a decision was not clearly identified that relates to this study of implementation uncertainty.</t>
+        </is>
       </c>
       <c r="AJ36" t="b">
         <v>1</v>
@@ -5892,33 +7376,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
       <c r="A37">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>297</v>
-      </c>
-      <c r="E37" t="s">
-        <v>298</v>
-      </c>
-      <c r="F37" t="s">
-        <v>501</v>
-      </c>
-      <c r="G37" t="s">
-        <v>502</v>
-      </c>
-      <c r="H37" t="s">
-        <v>299</v>
-      </c>
-      <c r="I37" t="s">
-        <v>300</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Little et. al.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>common coral trout (Plectropomus leopardus)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Great Barrier Reef</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Great Barrier Reef coral reef fin fish fishery</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Fishing Behavior</t>
+        </is>
       </c>
       <c r="J37" t="b">
         <v>0</v>
@@ -5950,50 +7450,80 @@
       <c r="S37" t="b">
         <v>0</v>
       </c>
-      <c r="T37" t="s">
-        <v>301</v>
-      </c>
-      <c r="U37" t="s">
-        <v>284</v>
-      </c>
-      <c r="V37" t="s">
-        <v>37</v>
-      </c>
-      <c r="W37" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>578</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>304</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>From authors, "We explored the effects of harvest-management systems in the form of ITQs and no-take areas on economic returns and biomass of coral trout with a model that simulates the metapopulation dynamics of coral trout and its harvest"  My version, "What combination of area closures and fishery regulations, either catch or effort limits, will produce the optimal economic return and fishery biomass?"</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Not discussed</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Little, L.R., Grafton, R.Q., Kompas, T., Smith, A.D.M., Punt, A.E. and Mapstone, B.D., 2011. Complementarity of no‐take marine reserves and individual transferable catch quotas for managing the line fishery of the Great Barrier Reef. Conservation Biology, 25(2), pp.333-340.</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>10.1111/j.1523-1739.2010.01590.x</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Conservation Biology</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>No process discussion is presented by the authors.  Seemingly this was a scientist driven project without external input.  While an optimal alternative was not selected, as no weights were applied to the two objectives, the authors do note that a combination of a closure with an ITQ will out perform other options (competitive TAC, no closure).</t>
+        </is>
       </c>
       <c r="AJ37" t="b">
         <v>1</v>
@@ -6002,33 +7532,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
       <c r="A38">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" t="s">
-        <v>306</v>
-      </c>
-      <c r="E38" t="s">
-        <v>307</v>
-      </c>
-      <c r="F38" t="s">
-        <v>579</v>
-      </c>
-      <c r="G38" t="s">
-        <v>580</v>
-      </c>
-      <c r="H38" t="s">
-        <v>308</v>
-      </c>
-      <c r="I38" t="s">
-        <v>581</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Harford et. al.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Red Grouper (Epinephelus morio)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gulf of Mexico</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-90</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Gulf of Mexico red grouper fishery</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Environmental Conditions;Management Timeline;Uncertainty</t>
+        </is>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -6060,50 +7606,80 @@
       <c r="S38" t="b">
         <v>0</v>
       </c>
-      <c r="T38" t="s">
-        <v>309</v>
-      </c>
-      <c r="U38" t="s">
-        <v>284</v>
-      </c>
-      <c r="V38" t="s">
-        <v>37</v>
-      </c>
-      <c r="W38" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>582</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>312</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>(1) “Does the existing GMFMC management approach need to be modified to achieve management objectives due to effects of episodic natural mortality events?”; and (2) “If modifications are considered, what are their effects on and trade-offs for maintaining sustainable fisheries?”</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Not discussed</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Harford, W.J., Grüss, A., Schirripa, M.J., Sagarese, S.R., Bryan, M. and Karnauskas, M., 2018. Handle with care: establishing catch limits for fish stocks experiencing episodic natural mortality events. Fisheries, 43(10), pp.463-471.</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>10.1002/fsh.10131</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Fisheries</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>No process discussion is presented.  Seemingly a scientist lead simulation study of the impacts of extreme natural mortality events and HCRs that are responsive to these effects.</t>
+        </is>
       </c>
       <c r="AJ38" t="b">
         <v>1</v>
@@ -6112,33 +7688,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
       <c r="A39">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" t="s">
-        <v>315</v>
-      </c>
-      <c r="F39" t="s">
-        <v>583</v>
-      </c>
-      <c r="G39" t="s">
-        <v>584</v>
-      </c>
-      <c r="H39" t="s">
-        <v>316</v>
-      </c>
-      <c r="I39" t="s">
-        <v>585</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ives et. al.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>eastern school prawn (Metapenaeus macleayi)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Clarence River, New South Wales (NSW), Australia</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Clarence River eastern school prawn fishery</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Climate Change;Spatial Structure</t>
+        </is>
       </c>
       <c r="J39" t="b">
         <v>0</v>
@@ -6170,47 +7762,75 @@
       <c r="S39" t="b">
         <v>0</v>
       </c>
-      <c r="T39" t="s">
-        <v>317</v>
-      </c>
-      <c r="U39" t="s">
-        <v>318</v>
-      </c>
-      <c r="V39" t="s">
-        <v>37</v>
-      </c>
-      <c r="W39" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>484</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>586</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>321</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>What management strategy will best achieve Clarence River eastern school prawn fishery objectives given changes to river discharge resulting from future rainfall variability?</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Unspecified.  The indicators aren't described prior to the results section</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Fishery;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Fishery;Management</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Ives, M.C., Scandol, J.P., Montgomery, S.S. and Suthers, I.M., 2010. Modelling the possible effects of climate change on an Australian multi-fleet prawn fishery. Marine and Freshwater Research, 60(12), pp.1211-1222.</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>10.1071/MF07110</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Marine and Freshwater Research</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>No clear alternative was selected, but in the discussion the authors note that each of the management strategies evaluated perform similarly for the objectives considered. They note the absense of additional objectives that are likely important, such as cost, that would likley lead to selection of the status quo strategy.</t>
+        </is>
       </c>
       <c r="AJ39" t="b">
         <v>0</v>
@@ -6219,33 +7839,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
       <c r="A40">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>323</v>
-      </c>
-      <c r="E40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F40" t="s">
-        <v>500</v>
-      </c>
-      <c r="G40" t="s">
-        <v>587</v>
-      </c>
-      <c r="H40" t="s">
-        <v>325</v>
-      </c>
-      <c r="I40" t="s">
-        <v>326</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A'mar et. al.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Walleye pollock (Theragra chalcogramma)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-144</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska Walleye pollock fishery</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -6277,50 +7913,80 @@
       <c r="S40" t="b">
         <v>0</v>
       </c>
-      <c r="T40" t="s">
-        <v>327</v>
-      </c>
-      <c r="U40" t="s">
-        <v>170</v>
-      </c>
-      <c r="V40" t="s">
-        <v>37</v>
-      </c>
-      <c r="W40" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>330</v>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Which of two proposed management strategies will perform best given climate change impacts to the Gulf of Alaska walleye pollock fishery, and are the proposed management strategies robust to climate change impacts?</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>A’mar, Z.T., Punt, A.E. and Dorn, M.W., 2009. The evaluation of two management strategies for the Gulf of Alaska walleye pollock fishery under climate change. ICES Journal of Marine Science, 66(7), pp.1614-1632.</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsp044</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>The focus of this MSE is less on selecting a management procedure, and more on evaluating the implications of climate to management.</t>
+        </is>
       </c>
       <c r="AJ40" t="b">
         <v>0</v>
@@ -6329,33 +7995,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
       <c r="A41">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>331</v>
-      </c>
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>332</v>
-      </c>
-      <c r="E41" t="s">
-        <v>333</v>
-      </c>
-      <c r="F41" t="s">
-        <v>465</v>
-      </c>
-      <c r="G41" t="s">
-        <v>588</v>
-      </c>
-      <c r="H41" t="s">
-        <v>334</v>
-      </c>
-      <c r="I41" t="s">
-        <v>326</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brunel et al</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>herring (Clupea harengus), plaice (Pleuronectes platessa), and cod (Gadus morhua)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>North Sea</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>North Sea fishery case studies</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J41" t="b">
         <v>0</v>
@@ -6387,50 +8069,80 @@
       <c r="S41" t="b">
         <v>0</v>
       </c>
-      <c r="T41" t="s">
-        <v>335</v>
-      </c>
-      <c r="U41" t="s">
-        <v>170</v>
-      </c>
-      <c r="V41" t="s">
-        <v>37</v>
-      </c>
-      <c r="W41" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>338</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Study problem defintion:  Do environmentally responsive harvest control rules improve the achievement of management outcomes?  This study doesn't seem to be directly triggered by management questions, but a management focused wording of the problem would be something like:  What combination of harvest control rule definition and environmental resposiveness strategy will best achieve fishery management objectives?</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Brunel, T., Piet, G.J., van Hal, R. and Röckmann, C., 2010. Performance of harvest control rules in a variable environment. ICES Journal of Marine Science, 67(5), pp.1051-1062.</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsp297</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>This is a simulation study for three case studies more than an effort to determine the optimal management strategy for a particular fishery.</t>
+        </is>
       </c>
       <c r="AJ41" t="b">
         <v>0</v>
@@ -6439,33 +8151,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
       <c r="A42">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
-        <v>339</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>340</v>
-      </c>
-      <c r="E42" t="s">
-        <v>341</v>
-      </c>
-      <c r="F42" t="s">
-        <v>589</v>
-      </c>
-      <c r="G42" t="s">
-        <v>590</v>
-      </c>
-      <c r="H42" t="s">
-        <v>342</v>
-      </c>
-      <c r="I42" t="s">
-        <v>326</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Punt</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Pacific ocean perch (S. alutus)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Northeast Pacific</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-136</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Pacific ocean perch fishery</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -6497,50 +8225,80 @@
       <c r="S42" t="b">
         <v>0</v>
       </c>
-      <c r="T42" t="s">
-        <v>343</v>
-      </c>
-      <c r="U42" t="s">
-        <v>344</v>
-      </c>
-      <c r="V42" t="s">
-        <v>37</v>
-      </c>
-      <c r="W42" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>345</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>347</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>As presented the problem definition would be: How well do current rebuilding plans, and plans that account for climate as a driver of stock status, perform given climate impacts?  That problem definition was not a decision question, but a research question.  A management question for this might be: "What means off account for climate best achieves the objectives of a fisheries rebuilding plan given climate uncertainty?"</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Unspecified, but seemingly selected by author.</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Punt, A.E., 2011. The impact of climate change on the performance of rebuilding strategies for overfished groundfish species of the US west coast. Fisheries Research, 109(2-3), pp.320-329.</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2011.02.019</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>Simulation study without documentation of the decision making process.  MSE focused on rebuilding plans, so assumption of a stock starting below a target abundance with additional objectives related to recovery.</t>
+        </is>
       </c>
       <c r="AJ42" t="b">
         <v>0</v>
@@ -6549,33 +8307,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
       <c r="A43">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
-        <v>348</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" t="s">
-        <v>511</v>
-      </c>
-      <c r="G43" t="s">
-        <v>560</v>
-      </c>
-      <c r="H43" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" t="s">
-        <v>326</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Wayte</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jackass morwong (Nemadactylus macropterus)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Southeastern Australia</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Australia’s Southern and Eastern Scalefish and Shark Fishery</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J43" t="b">
         <v>0</v>
@@ -6607,50 +8381,80 @@
       <c r="S43" t="b">
         <v>0</v>
       </c>
-      <c r="T43" t="s">
-        <v>350</v>
-      </c>
-      <c r="U43" t="s">
-        <v>351</v>
-      </c>
-      <c r="V43" t="s">
-        <v>37</v>
-      </c>
-      <c r="W43" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>354</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>No problem definition is explicitly stated.  The closest statement in the journal article is: "Management strategy evaluation (MSE) is used to explore the implications of making management decisions under the wrong recruitment assumption."</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Unspecified.  Those noted are based on government policy.</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Government;Scientists</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Wayte, S.E., 2013. Management implications of including a climate-induced recruitment shift in the stock assessment for jackass morwong (Nemadactylus macropterus) in south-eastern Australia. Fisheries Research, 142, pp.47-55.</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2012.07.009</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>This is a simulation study without any reference to a decision making process.</t>
+        </is>
       </c>
       <c r="AJ43" t="b">
         <v>0</v>
@@ -6659,33 +8463,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
       <c r="A44">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
-        <v>355</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s">
-        <v>356</v>
-      </c>
-      <c r="E44" t="s">
-        <v>357</v>
-      </c>
-      <c r="F44" t="s">
-        <v>591</v>
-      </c>
-      <c r="G44" t="s">
-        <v>512</v>
-      </c>
-      <c r="H44" t="s">
-        <v>358</v>
-      </c>
-      <c r="I44" t="s">
-        <v>592</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Weijerman et al</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>coral ecosystem</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Guam</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Coral Reef based fisheries surround Guam</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Climate Change;Environmental Conditions;Habitat Change</t>
+        </is>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -6717,41 +8537,65 @@
       <c r="S44" t="b">
         <v>0</v>
       </c>
-      <c r="T44" t="s">
-        <v>359</v>
-      </c>
-      <c r="U44" t="s">
-        <v>360</v>
-      </c>
-      <c r="V44" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>594</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>361</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>362</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>508</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>363</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>My definition, "What management strategy will best achieve the management objectives for coral reef fisheries in guam given climate change and pollution impacts to coral reefs?"</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>a facilitated stakeholder meeting</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Visualization</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Facilitators;Fishery;Government;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Fishery;Government;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Fishery;Government;Independent;Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Weijerman, M., Fulton, E.A. and Brainard, R.E., 2016. Management strategy evaluation applied to coral reef ecosystems in support of ecosystem-based management. PLoS One, 11(3), p.e0152577.</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>10.1371/journal.pone.0152577</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>PLoS ONE</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>Stakeholders were included in this process, and there was some documentation of the process.  Additional documentation could have covered the development of the problem, roles, and the results of the visual trade-off evaluation.</t>
+        </is>
       </c>
       <c r="AJ44" t="b">
         <v>0</v>
@@ -6760,33 +8604,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
       <c r="A45">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
-        <v>364</v>
-      </c>
-      <c r="C45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" t="s">
-        <v>365</v>
-      </c>
-      <c r="E45" t="s">
-        <v>366</v>
-      </c>
-      <c r="F45" t="s">
-        <v>595</v>
-      </c>
-      <c r="G45" t="s">
-        <v>596</v>
-      </c>
-      <c r="H45" t="s">
-        <v>367</v>
-      </c>
-      <c r="I45" t="s">
-        <v>326</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Little and Lin</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NA (beach management)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>New South Wales, Australia</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>New South Wales Beaches (not a fishery)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J45" t="b">
         <v>0</v>
@@ -6818,50 +8678,80 @@
       <c r="S45" t="b">
         <v>0</v>
       </c>
-      <c r="T45" t="s">
-        <v>368</v>
-      </c>
-      <c r="U45" t="s">
-        <v>369</v>
-      </c>
-      <c r="V45" t="s">
-        <v>37</v>
-      </c>
-      <c r="W45" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>372</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>"Here, we focus on the adaptation option of coastal nourishment, where coastal land loss is combatted by replacing lost sand on the beach by pumping new sand (usually from offshore)." While the authors have a section title "defining the problem", it is a mainly summary of the system ending with the statement above.  My problem definition given the information provided by the authors would be: "What coastal management should be conducted to account for beach recession?"</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>They were not elicited, and were presumably provided by the authros.</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Little, L.R. and Lin, B.B., 2017. A decision analysis approach to climate adaptation: a structured method to consider multiple options. Mitigation and adaptation strategies for global change, 22(1), pp.15-28.</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>10.1007/s11027-015-9658-8</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Mitigation and Adaptation Strategies for Global Change</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>This is not a fisheries decision, but a shoreline management decision.</t>
+        </is>
       </c>
       <c r="AJ45" t="b">
         <v>0</v>
@@ -6870,33 +8760,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
       <c r="A46">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
-        <v>373</v>
-      </c>
-      <c r="C46" t="s">
-        <v>253</v>
-      </c>
-      <c r="D46" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" t="s">
-        <v>506</v>
-      </c>
-      <c r="G46" t="s">
-        <v>556</v>
-      </c>
-      <c r="H46" t="s">
-        <v>374</v>
-      </c>
-      <c r="I46" t="s">
-        <v>598</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hofmann et al</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight surfclam fishery</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Climate Change;Migration</t>
+        </is>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -6928,50 +8834,80 @@
       <c r="S46" t="b">
         <v>0</v>
       </c>
-      <c r="T46" t="s">
-        <v>375</v>
-      </c>
-      <c r="U46" t="s">
-        <v>376</v>
-      </c>
-      <c r="V46" t="s">
-        <v>37</v>
-      </c>
-      <c r="W46" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>565</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>379</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Not provided clearly by authors.  My definition, "How can surfclam be managed in a manner that accounts for known factors and impending climate change?"</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>None provided</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Hofmann, E.E., Powell, E.N., Klinck, J.M., Munroe, D.M., Mann, R., Haidvogel, D.B., NarvÁEz, D.A., Zhang, X. and Kuykendall, K.M., 2018. An Overview of Factors Affecting Distribution of the Atlantic Surfclam (Spisula solidissima), a Continental Shelf Biomass Dominant, During a Period of Climate Change. Journal of Shellfish Research, 37(4), pp.821-832.</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>10.2983/035.037.0412</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Journal of Shellfish Research</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Appartently an MSE was conducted, or is being conducted, but the objectives, and alternatives evaluated are not provided, only a conceptual model of the system is provided.</t>
+        </is>
       </c>
       <c r="AJ46" t="b">
         <v>0</v>
@@ -6980,33 +8916,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
       <c r="A47">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
-        <v>380</v>
-      </c>
-      <c r="C47" t="s">
-        <v>381</v>
-      </c>
-      <c r="D47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E47" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" t="s">
-        <v>506</v>
-      </c>
-      <c r="G47" t="s">
-        <v>556</v>
-      </c>
-      <c r="H47" t="s">
-        <v>374</v>
-      </c>
-      <c r="I47" t="s">
-        <v>599</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Kuykendall et al</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Atlantic surfclam (Spisula solidissima)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-73</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mid Atlantic Bight surfclam fishery</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Climate Change;Uncertainty</t>
+        </is>
       </c>
       <c r="J47" t="b">
         <v>0</v>
@@ -7038,50 +8990,81 @@
       <c r="S47" t="b">
         <v>0</v>
       </c>
-      <c r="T47" t="s">
-        <v>382</v>
-      </c>
-      <c r="U47" t="s">
-        <v>558</v>
-      </c>
-      <c r="V47" t="s">
-        <v>37</v>
-      </c>
-      <c r="W47" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>509</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>383</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>384</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>385</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>My summary, "What spatial management strategy will best achieve surfclam management objectives in the future in response to the projected influence climate change may have of stock abundance?"</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>The performance metrics are rooted in interviews with representatives from processing plants, industry trade organizations, and vessel_x000d_
+captains to ensure appropriateness. The performance metrics chosen are important in that they provide metrics that allow commercial stakeholders to evaluate the results of each management procedure based on their business model.</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Fishery;Scientists</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Kuykendall, K.M., Powell, E.N., Klinck, J.M., Moreno, P.T. and Leaf, R.T., 2019. The effect of abundance changes on a management strategy evaluation for the Atlantic surfclam (Spisula solidissima) using a spatially explicit, vessel-based fisheries model. Ocean &amp; Coastal Management, 169, pp.68-85.</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>10.1016/j.ocecoaman.2018.11.008</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Ocean &amp; Coastal Management</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>Simulation model includes a model of fishing behavior.</t>
+        </is>
       </c>
       <c r="AJ47" t="b">
         <v>0</v>
@@ -7090,33 +9073,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
       <c r="A48">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>386</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>387</v>
-      </c>
-      <c r="E48" t="s">
-        <v>388</v>
-      </c>
-      <c r="F48" t="s">
-        <v>465</v>
-      </c>
-      <c r="G48" t="s">
-        <v>601</v>
-      </c>
-      <c r="H48" t="s">
-        <v>389</v>
-      </c>
-      <c r="I48" t="s">
-        <v>326</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ianelli et al</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>walleye pollock (Theragra chalcogramma)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Eastern Bering Sea</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-165</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Eastern Bering Sea pollock fishery</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -7148,47 +9147,75 @@
       <c r="S48" t="b">
         <v>0</v>
       </c>
-      <c r="T48" t="s">
-        <v>390</v>
-      </c>
-      <c r="U48" t="s">
-        <v>391</v>
-      </c>
-      <c r="V48" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>602</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>602</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>548</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>393</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>394</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>My summary, "What management proceedure will be achieve the pollock fisher management objectives given future climate change?"</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Unspecified how objectives, or the weights applied to those objectives, were selected.</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>MCDA</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Experts;Scientists</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Experts;Scientists</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>Experts;Scientists</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Expert elicitation;Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Ianelli, J.N., Hollowed, A.B., Haynie, A.C., Mueter, F.J. and Bond, N.A., 2011. Evaluating management strategies for eastern Bering Sea walleye pollock (Theragra chalcogramma) in a changing environment. ICES Journal of Marine Science, 68(6), pp.1297-1304.</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsr010</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>While Trade-offs were evaluated, the weights used were not elicited.  Authors note asking questions of experts, but it isn't clear who the experts are, or what questions they were asked.</t>
+        </is>
       </c>
       <c r="AJ48" t="b">
         <v>0</v>
@@ -7197,33 +9224,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
       <c r="A49">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>395</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>387</v>
-      </c>
-      <c r="E49" t="s">
-        <v>324</v>
-      </c>
-      <c r="F49" t="s">
-        <v>465</v>
-      </c>
-      <c r="G49" t="s">
-        <v>587</v>
-      </c>
-      <c r="H49" t="s">
-        <v>396</v>
-      </c>
-      <c r="I49" t="s">
-        <v>326</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>A'mar et al</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>walleye pollock (Theragra chalcogramma)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-144</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Gulf of Alaska walleye pollock fishery</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J49" t="b">
         <v>0</v>
@@ -7255,50 +9298,80 @@
       <c r="S49" t="b">
         <v>0</v>
       </c>
-      <c r="T49" t="s">
-        <v>397</v>
-      </c>
-      <c r="U49" t="s">
-        <v>398</v>
-      </c>
-      <c r="V49" t="s">
-        <v>37</v>
-      </c>
-      <c r="W49" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>528</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>401</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>My definition: "How well do the current management strategy, and some candidate management strategies, perform given shifts in climate regime, as realized in fisheries productivity in the Gulf of Alaska walleye pollock fishery?"</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Not discussed, but apparently they were supplied by the scientists.</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>A’mar, Z. Teresa, André E. Punt, and Martin W. Dorn. “The Impact of Regime Shifts on the Performance of Management Strategies for the Gulf of Alaska Walleye Pollock (Theragra Chalcogramma) Fishery.” Canadian Journal of Fisheries and Aquatic Sciences 66, no. 12 (December 2009): 2222–42.</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>doi.org/10.1139/F09-142</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Canadian Journal of Fisheries and Aquatic Sciences</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>This was a simulation study primarily.</t>
+        </is>
       </c>
       <c r="AJ49" t="b">
         <v>0</v>
@@ -7307,33 +9380,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
       <c r="A50">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>402</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" t="s">
-        <v>403</v>
-      </c>
-      <c r="E50" t="s">
-        <v>404</v>
-      </c>
-      <c r="F50" t="s">
-        <v>450</v>
-      </c>
-      <c r="G50" t="s">
-        <v>443</v>
-      </c>
-      <c r="H50" t="s">
-        <v>405</v>
-      </c>
-      <c r="I50" t="s">
-        <v>326</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dorner et al</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Pacific salmon (Onchorhyncus spp.)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>North Pacific</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-129</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Pacific Salmon fsihery</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -7365,50 +9454,80 @@
       <c r="S50" t="b">
         <v>0</v>
       </c>
-      <c r="T50" t="s">
-        <v>406</v>
-      </c>
-      <c r="U50" t="s">
-        <v>407</v>
-      </c>
-      <c r="V50" t="s">
-        <v>37</v>
-      </c>
-      <c r="W50" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>409</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>528</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>410</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>The authors state: "the purpose of our research was to evaluate the relative performance of several combinations of harvest policies and stock assessment/forecasting models, including hierarchical models and models that make use of environmental covariates, in the presence of uncertainties about future climatic conditions and outcome uncertainty"</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Seemingly supplied by the scientist authoring the MSE</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Dorner, Brigitte, Randall M. Peterman, and Zhenming Su. “Evaluation of Performance of Alternative Management Models of Pacific Salmon (Oncorhynchus Spp.) in the Presence of Climatic Change and Outcome Uncertainty Using Monte Carlo Simulations.” Canadian Journal of Fisheries and Aquatic Sciences 66, no. 12 (December 2009): 2199–2221.</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>10.1139/F09-144</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Canadian Journal of Fisheries and Aquatic Sciences</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>This is a simulation study priamrily focused on alternative stock assessment methods</t>
+        </is>
       </c>
       <c r="AJ50" t="b">
         <v>0</v>
@@ -7417,33 +9536,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
       <c r="A51">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
-        <v>411</v>
-      </c>
-      <c r="C51" t="s">
-        <v>381</v>
-      </c>
-      <c r="D51" t="s">
-        <v>412</v>
-      </c>
-      <c r="E51" t="s">
-        <v>413</v>
-      </c>
-      <c r="F51" t="s">
-        <v>603</v>
-      </c>
-      <c r="G51" t="s">
-        <v>507</v>
-      </c>
-      <c r="H51" t="s">
-        <v>414</v>
-      </c>
-      <c r="I51" t="s">
-        <v>326</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Haltuch et al</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sablefish (Anoplopoma fimbria)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>North Pacific Ocean off US West Coast</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-126</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>West Coast sablefish fishery</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J51" t="b">
         <v>0</v>
@@ -7475,50 +9610,80 @@
       <c r="S51" t="b">
         <v>0</v>
       </c>
-      <c r="T51" t="s">
-        <v>415</v>
-      </c>
-      <c r="U51" t="s">
-        <v>416</v>
-      </c>
-      <c r="V51" t="s">
-        <v>37</v>
-      </c>
-      <c r="W51" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>418</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>419</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>"how resilient is the sablefish stock is to current fishery harvest control rules (HCRs) given climate change and variability and considering alternatives that might be more responsive to long-term directional changes in the productivity of fish stocks?"</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Seemingly supplied by scientists</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Haltuch, Melissa A, Z Teresa A’mar, Nicholas A Bond, and Juan L Valero. “Assessing the Effects of Climate Change on US West Coast Sablefish Productivity and on the Performance of Alternative Management Strategies.” Edited by Jörn Schmidt. ICES Journal of Marine Science 76, no. 6 (December 1, 2019): 1524–42.</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>10.1093/icesjms/fsz029</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>ICES Journal of Marine Science</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>Seemingly a simulation study without any connection to the management process.</t>
+        </is>
       </c>
       <c r="AJ51" t="b">
         <v>0</v>
@@ -7527,33 +9692,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
       <c r="A52">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" t="s">
-        <v>381</v>
-      </c>
-      <c r="D52" t="s">
-        <v>421</v>
-      </c>
-      <c r="E52" t="s">
-        <v>422</v>
-      </c>
-      <c r="F52" t="s">
-        <v>604</v>
-      </c>
-      <c r="G52" t="s">
-        <v>511</v>
-      </c>
-      <c r="H52" t="s">
-        <v>423</v>
-      </c>
-      <c r="I52" t="s">
-        <v>326</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Merino et al</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>North Atlantic Albacore (Thunnus alalunga)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>North Atlantic Ocean</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-39</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>North Atlantic Albacore Fishery</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -7585,50 +9766,80 @@
       <c r="S52" t="b">
         <v>0</v>
       </c>
-      <c r="T52" t="s">
-        <v>424</v>
-      </c>
-      <c r="U52" t="s">
-        <v>425</v>
-      </c>
-      <c r="V52" t="s">
-        <v>215</v>
-      </c>
-      <c r="W52" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>427</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>428</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>My problem statement based on the available documentation, "Is the HCR adopted for North Atlantic albacore robust to a range of climate change impacts"</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Seemingly they were provided by the scientists conducting the evaluation based on established policy from the management body, but the methodology was not explictly documented.</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Management;Scientists</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Merino, Gorka, Haritz Arrizabalaga, Igor Arregui, Josu Santiago, Hilario Murua, Agurtzane Urtizberea, Eider Andonegi, Paul De Bruyn, and Laurence T. Kell. “Adaptation of North Atlantic Albacore Fishery to Climate Change: Yet Another Potential Benefit of Harvest Control Rules.” Frontiers in Marine Science 6 (October 10, 2019)</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>10.3389/fmars.2019.00620</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Frontiers in Marine Science</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Seemingly a simulation study without a decision making process. No trade-off as evaluated as there are no alternative management proceedures to compare.</t>
+        </is>
       </c>
       <c r="AJ52" t="b">
         <v>0</v>
@@ -7637,33 +9848,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row spans="1:37" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
       <c r="A53">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C53" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" t="s">
-        <v>430</v>
-      </c>
-      <c r="E53" t="s">
-        <v>431</v>
-      </c>
-      <c r="F53" t="s">
-        <v>539</v>
-      </c>
-      <c r="G53" t="s">
-        <v>606</v>
-      </c>
-      <c r="H53" t="s">
-        <v>432</v>
-      </c>
-      <c r="I53" t="s">
-        <v>326</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Castillo-Jordán et al</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Patagonian Grenadier (Macruronus Magellanicus)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-76</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Chile Patagonian Grenadier fishery</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Climate Change</t>
+        </is>
       </c>
       <c r="J53" t="b">
         <v>0</v>
@@ -7695,50 +9922,80 @@
       <c r="S53" t="b">
         <v>0</v>
       </c>
-      <c r="T53" t="s">
-        <v>433</v>
-      </c>
-      <c r="U53" t="s">
-        <v>434</v>
-      </c>
-      <c r="V53" t="s">
-        <v>37</v>
-      </c>
-      <c r="W53" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>437</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>My slight adaptation of the study objective is: "how would a regime shift in recruitment for Patagonian grenadier off Chile impact the success of management decisions and the sustainability of the fishery?"</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Not addressed</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Mental Analysis</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Scientists</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>Simulation modeling</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Castillo-Jordán, Claudio, Sally E. Wayte, Geoffrey N. Tuck, Sean Tracey, Stewart D. Frusher, and André E. Punt. “Implications of a Climate-Induced Recruitment Shift in the Stock Assessment of Patagonian Grenadier (Macruronus Magellanicus) in Chile.” Fisheries Research 212 (April 2019): 114–22.</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>10.1016/j.fishres.2018.12.019</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Fisheries Research</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>While this is referred to as a climate change study, there isn't a projection of climate change explicitly. What is projected is a possible regime shift in the environment. In terms of the MSE this is a simulation study with an assoiciated decision process seemingly.</t>
+        </is>
       </c>
       <c r="AJ53" t="b">
         <v>0</v>

--- a/data/DB files - Excel/tblStudy.xlsx
+++ b/data/DB files - Excel/tblStudy.xlsx
@@ -2782,7 +2782,7 @@
       </c>
       <c r="M13" s="5" t="inlineStr">
         <is>
-          <t>PLoS ONE</t>
+          <t>Plos One</t>
         </is>
       </c>
       <c r="N13" s="5" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
-          <t>PLoS ONE</t>
+          <t>Plos One</t>
         </is>
       </c>
       <c r="N30" s="5" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="M44" s="5" t="inlineStr">
         <is>
-          <t>PLoS ONE</t>
+          <t>Plos One</t>
         </is>
       </c>
       <c r="N44" s="5" t="inlineStr">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="M54" s="5" t="inlineStr">
         <is>
-          <t>PloS one</t>
+          <t>Plos One</t>
         </is>
       </c>
       <c r="N54" s="5" t="inlineStr">
